--- a/mac_us_states_deaths.xlsx
+++ b/mac_us_states_deaths.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/71ffaa969b2b2dbb/Meridian/h Computer Science/Teacher Projects/COVID/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="262" documentId="8_{01E479FA-0407-4188-80FA-D8939889E2E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{0C266511-B0A6-426E-8DF5-9A37D93ECBE5}"/>
+  <xr:revisionPtr revIDLastSave="285" documentId="8_{01E479FA-0407-4188-80FA-D8939889E2E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{89BB4B4F-0067-4756-A7D3-417E8178015B}"/>
   <bookViews>
-    <workbookView xWindow="6795" yWindow="-19080" windowWidth="22020" windowHeight="12945" xr2:uid="{479F01FD-FBEA-480D-8311-3224064F669A}"/>
+    <workbookView xWindow="8040" yWindow="-18150" windowWidth="13155" windowHeight="13245" xr2:uid="{479F01FD-FBEA-480D-8311-3224064F669A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$P$54</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$O$54</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
   <si>
     <t>New York</t>
   </si>
@@ -240,6 +240,9 @@
   </si>
   <si>
     <t>Wyoming</t>
+  </si>
+  <si>
+    <t>3/28/20</t>
   </si>
 </sst>
 </file>
@@ -292,7 +295,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -301,9 +304,6 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -631,14 +631,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07C58A35-5762-462F-A8C8-AA6852158F40}">
   <dimension ref="A1:P54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="L52" sqref="L52"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P29" sqref="P29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="16.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="16" width="7.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="15" width="7.453125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.35">
@@ -675,20 +675,20 @@
       <c r="K1" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="L1" s="4" t="s">
-        <v>54</v>
+      <c r="L1" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="P1" s="4" t="s">
         <v>58</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.35">
@@ -725,20 +725,20 @@
       <c r="K2" s="3">
         <v>0</v>
       </c>
-      <c r="L2" s="5">
-        <v>0</v>
-      </c>
-      <c r="M2" s="5">
-        <v>0</v>
-      </c>
-      <c r="N2" s="5">
-        <v>0</v>
-      </c>
-      <c r="O2" s="5">
-        <v>1</v>
-      </c>
-      <c r="P2" s="2">
-        <v>1</v>
+      <c r="L2" s="4">
+        <v>0</v>
+      </c>
+      <c r="M2" s="4">
+        <v>0</v>
+      </c>
+      <c r="N2" s="4">
+        <v>1</v>
+      </c>
+      <c r="O2" s="2">
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.35">
@@ -782,12 +782,12 @@
         <v>0</v>
       </c>
       <c r="N3" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O3" s="3">
-        <v>1</v>
-      </c>
-      <c r="P3" s="3">
+        <v>0</v>
+      </c>
+      <c r="P3">
         <v>1</v>
       </c>
     </row>
@@ -825,20 +825,20 @@
       <c r="K4" s="3">
         <v>2</v>
       </c>
-      <c r="L4" s="5">
-        <v>2</v>
-      </c>
-      <c r="M4" s="5">
+      <c r="L4" s="4">
         <v>5</v>
       </c>
-      <c r="N4" s="5">
+      <c r="M4" s="4">
         <v>6</v>
       </c>
-      <c r="O4" s="5">
+      <c r="N4" s="4">
         <v>8</v>
       </c>
-      <c r="P4" s="2">
+      <c r="O4" s="2">
         <v>8</v>
+      </c>
+      <c r="P4">
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.35">
@@ -875,20 +875,20 @@
       <c r="K5" s="3">
         <v>0</v>
       </c>
-      <c r="L5" s="5">
-        <v>0</v>
-      </c>
-      <c r="M5" s="5">
-        <v>0</v>
-      </c>
-      <c r="N5" s="5">
-        <v>2</v>
-      </c>
-      <c r="O5" s="5">
-        <v>3</v>
-      </c>
-      <c r="P5" s="2">
-        <v>3</v>
+      <c r="L5" s="4">
+        <v>0</v>
+      </c>
+      <c r="M5" s="4">
+        <v>2</v>
+      </c>
+      <c r="N5" s="4">
+        <v>3</v>
+      </c>
+      <c r="O5" s="2">
+        <v>3</v>
+      </c>
+      <c r="P5">
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.35">
@@ -925,20 +925,20 @@
       <c r="K6" s="3">
         <v>30</v>
       </c>
-      <c r="L6" s="5">
-        <v>27</v>
-      </c>
-      <c r="M6" s="5">
+      <c r="L6" s="4">
         <v>40</v>
       </c>
-      <c r="N6" s="5">
+      <c r="M6" s="4">
         <v>53</v>
       </c>
-      <c r="O6" s="5">
+      <c r="N6" s="4">
         <v>65</v>
       </c>
-      <c r="P6" s="2">
+      <c r="O6" s="2">
         <v>81</v>
+      </c>
+      <c r="P6">
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.35">
@@ -975,20 +975,20 @@
       <c r="K7" s="3">
         <v>6</v>
       </c>
-      <c r="L7" s="5">
-        <v>6</v>
-      </c>
-      <c r="M7" s="5">
+      <c r="L7" s="4">
         <v>7</v>
       </c>
-      <c r="N7" s="5">
+      <c r="M7" s="4">
         <v>11</v>
       </c>
-      <c r="O7" s="5">
+      <c r="N7" s="4">
         <v>24</v>
       </c>
-      <c r="P7" s="2">
+      <c r="O7" s="2">
         <v>24</v>
+      </c>
+      <c r="P7">
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.35">
@@ -1025,20 +1025,20 @@
       <c r="K8" s="3">
         <v>5</v>
       </c>
-      <c r="L8" s="5">
-        <v>10</v>
-      </c>
-      <c r="M8" s="5">
+      <c r="L8" s="4">
         <v>12</v>
       </c>
-      <c r="N8" s="5">
+      <c r="M8" s="4">
         <v>19</v>
       </c>
-      <c r="O8" s="5">
+      <c r="N8" s="4">
         <v>21</v>
       </c>
-      <c r="P8" s="2">
+      <c r="O8" s="2">
         <v>21</v>
+      </c>
+      <c r="P8">
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.35">
@@ -1075,20 +1075,20 @@
       <c r="K9" s="3">
         <v>0</v>
       </c>
-      <c r="L9" s="5">
-        <v>0</v>
-      </c>
-      <c r="M9" s="5">
-        <v>0</v>
-      </c>
-      <c r="N9" s="5">
-        <v>0</v>
-      </c>
-      <c r="O9" s="5">
-        <v>2</v>
-      </c>
-      <c r="P9" s="2">
-        <v>2</v>
+      <c r="L9" s="4">
+        <v>0</v>
+      </c>
+      <c r="M9" s="4">
+        <v>0</v>
+      </c>
+      <c r="N9" s="4">
+        <v>2</v>
+      </c>
+      <c r="O9" s="2">
+        <v>2</v>
+      </c>
+      <c r="P9">
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.35">
@@ -1125,20 +1125,20 @@
       <c r="K10" s="3">
         <v>2</v>
       </c>
-      <c r="L10" s="5">
-        <v>2</v>
-      </c>
-      <c r="M10" s="5">
-        <v>2</v>
-      </c>
-      <c r="N10" s="5">
-        <v>2</v>
-      </c>
-      <c r="O10" s="5">
-        <v>3</v>
-      </c>
-      <c r="P10" s="2">
-        <v>3</v>
+      <c r="L10" s="4">
+        <v>2</v>
+      </c>
+      <c r="M10" s="4">
+        <v>2</v>
+      </c>
+      <c r="N10" s="4">
+        <v>3</v>
+      </c>
+      <c r="O10" s="2">
+        <v>3</v>
+      </c>
+      <c r="P10">
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.35">
@@ -1175,20 +1175,20 @@
       <c r="K11" s="3">
         <v>13</v>
       </c>
-      <c r="L11" s="5">
-        <v>14</v>
-      </c>
-      <c r="M11" s="5">
+      <c r="L11" s="4">
         <v>18</v>
       </c>
-      <c r="N11" s="5">
+      <c r="M11" s="4">
         <v>22</v>
       </c>
-      <c r="O11" s="5">
+      <c r="N11" s="4">
         <v>29</v>
       </c>
-      <c r="P11" s="2">
+      <c r="O11" s="2">
         <v>29</v>
+      </c>
+      <c r="P11">
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.35">
@@ -1225,20 +1225,20 @@
       <c r="K12" s="3">
         <v>23</v>
       </c>
-      <c r="L12" s="5">
-        <v>25</v>
-      </c>
-      <c r="M12" s="5">
+      <c r="L12" s="4">
         <v>32</v>
       </c>
-      <c r="N12" s="5">
+      <c r="M12" s="4">
         <v>40</v>
       </c>
-      <c r="O12" s="5">
+      <c r="N12" s="4">
         <v>56</v>
       </c>
-      <c r="P12" s="2">
+      <c r="O12" s="2">
         <v>56</v>
+      </c>
+      <c r="P12">
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.35">
@@ -1275,19 +1275,19 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="5">
-        <v>1</v>
-      </c>
-      <c r="M13" s="5">
-        <v>1</v>
-      </c>
-      <c r="N13" s="5">
-        <v>1</v>
-      </c>
-      <c r="O13" s="5">
-        <v>1</v>
-      </c>
-      <c r="P13" s="2">
+      <c r="L13" s="4">
+        <v>1</v>
+      </c>
+      <c r="M13" s="4">
+        <v>1</v>
+      </c>
+      <c r="N13" s="4">
+        <v>1</v>
+      </c>
+      <c r="O13" s="2">
+        <v>1</v>
+      </c>
+      <c r="P13">
         <v>1</v>
       </c>
     </row>
@@ -1332,13 +1332,13 @@
         <v>0</v>
       </c>
       <c r="N14" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O14" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P14" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.35">
@@ -1375,20 +1375,20 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-      <c r="L15" s="5">
-        <v>0</v>
-      </c>
-      <c r="M15" s="5">
-        <v>0</v>
-      </c>
-      <c r="N15" s="5">
-        <v>0</v>
-      </c>
-      <c r="O15" s="5">
-        <v>3</v>
-      </c>
-      <c r="P15" s="2">
-        <v>3</v>
+      <c r="L15" s="4">
+        <v>0</v>
+      </c>
+      <c r="M15" s="4">
+        <v>0</v>
+      </c>
+      <c r="N15" s="4">
+        <v>3</v>
+      </c>
+      <c r="O15" s="2">
+        <v>3</v>
+      </c>
+      <c r="P15">
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.35">
@@ -1425,20 +1425,20 @@
       <c r="K16" s="3">
         <v>9</v>
       </c>
-      <c r="L16" s="5">
-        <v>12</v>
-      </c>
-      <c r="M16" s="5">
+      <c r="L16" s="4">
         <v>16</v>
       </c>
-      <c r="N16" s="5">
+      <c r="M16" s="4">
         <v>19</v>
       </c>
-      <c r="O16" s="5">
+      <c r="N16" s="4">
         <v>26</v>
       </c>
-      <c r="P16" s="2">
+      <c r="O16" s="2">
         <v>26</v>
+      </c>
+      <c r="P16">
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.35">
@@ -1475,20 +1475,20 @@
       <c r="K17" s="3">
         <v>6</v>
       </c>
-      <c r="L17" s="5">
-        <v>7</v>
-      </c>
-      <c r="M17" s="5">
+      <c r="L17" s="4">
         <v>12</v>
       </c>
-      <c r="N17" s="5">
+      <c r="M17" s="4">
         <v>14</v>
       </c>
-      <c r="O17" s="5">
+      <c r="N17" s="4">
         <v>17</v>
       </c>
-      <c r="P17" s="2">
+      <c r="O17" s="2">
         <v>18</v>
+      </c>
+      <c r="P17">
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.35">
@@ -1525,20 +1525,20 @@
       <c r="K18" s="3">
         <v>0</v>
       </c>
-      <c r="L18" s="5">
-        <v>0</v>
-      </c>
-      <c r="M18" s="5">
-        <v>0</v>
-      </c>
-      <c r="N18" s="5">
-        <v>1</v>
-      </c>
-      <c r="O18" s="5">
-        <v>1</v>
-      </c>
-      <c r="P18" s="2">
-        <v>1</v>
+      <c r="L18" s="4">
+        <v>0</v>
+      </c>
+      <c r="M18" s="4">
+        <v>1</v>
+      </c>
+      <c r="N18" s="4">
+        <v>1</v>
+      </c>
+      <c r="O18" s="2">
+        <v>1</v>
+      </c>
+      <c r="P18">
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.35">
@@ -1575,20 +1575,20 @@
       <c r="K19" s="3">
         <v>2</v>
       </c>
-      <c r="L19" s="5">
-        <v>2</v>
-      </c>
-      <c r="M19" s="5">
-        <v>2</v>
-      </c>
-      <c r="N19" s="5">
-        <v>3</v>
-      </c>
-      <c r="O19" s="5">
-        <v>3</v>
-      </c>
-      <c r="P19" s="2">
-        <v>3</v>
+      <c r="L19" s="4">
+        <v>2</v>
+      </c>
+      <c r="M19" s="4">
+        <v>3</v>
+      </c>
+      <c r="N19" s="4">
+        <v>3</v>
+      </c>
+      <c r="O19" s="2">
+        <v>3</v>
+      </c>
+      <c r="P19">
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.35">
@@ -1625,20 +1625,20 @@
       <c r="K20" s="3">
         <v>3</v>
       </c>
-      <c r="L20" s="5">
-        <v>3</v>
-      </c>
-      <c r="M20" s="5">
+      <c r="L20" s="4">
         <v>4</v>
       </c>
-      <c r="N20" s="5">
+      <c r="M20" s="4">
         <v>4</v>
       </c>
-      <c r="O20" s="5">
+      <c r="N20" s="4">
         <v>5</v>
       </c>
-      <c r="P20" s="2">
+      <c r="O20" s="2">
         <v>5</v>
+      </c>
+      <c r="P20">
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.35">
@@ -1675,20 +1675,20 @@
       <c r="K21" s="3">
         <v>20</v>
       </c>
-      <c r="L21" s="5">
-        <v>34</v>
-      </c>
-      <c r="M21" s="5">
+      <c r="L21" s="4">
         <v>46</v>
       </c>
-      <c r="N21" s="5">
+      <c r="M21" s="4">
         <v>65</v>
       </c>
-      <c r="O21" s="5">
+      <c r="N21" s="4">
         <v>83</v>
       </c>
-      <c r="P21" s="2">
+      <c r="O21" s="2">
         <v>83</v>
+      </c>
+      <c r="P21">
+        <v>137</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.35">
@@ -1737,8 +1737,8 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
+      <c r="P22">
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.35">
@@ -1775,20 +1775,20 @@
       <c r="K23" s="3">
         <v>3</v>
       </c>
-      <c r="L23" s="5">
-        <v>3</v>
-      </c>
-      <c r="M23" s="5">
-        <v>3</v>
-      </c>
-      <c r="N23" s="5">
+      <c r="L23" s="4">
+        <v>3</v>
+      </c>
+      <c r="M23" s="4">
         <v>4</v>
       </c>
-      <c r="O23" s="5">
+      <c r="N23" s="4">
         <v>4</v>
       </c>
-      <c r="P23" s="2">
+      <c r="O23" s="2">
         <v>4</v>
+      </c>
+      <c r="P23">
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.35">
@@ -1825,20 +1825,20 @@
       <c r="K24" s="3">
         <v>5</v>
       </c>
-      <c r="L24" s="5">
-        <v>9</v>
-      </c>
-      <c r="M24" s="5">
+      <c r="L24" s="4">
         <v>11</v>
       </c>
-      <c r="N24" s="5">
+      <c r="M24" s="4">
         <v>15</v>
       </c>
-      <c r="O24" s="5">
+      <c r="N24" s="4">
         <v>25</v>
       </c>
-      <c r="P24" s="2">
+      <c r="O24" s="2">
         <v>25</v>
+      </c>
+      <c r="P24">
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.35">
@@ -1875,20 +1875,20 @@
       <c r="K25" s="3">
         <v>9</v>
       </c>
-      <c r="L25" s="5">
-        <v>15</v>
-      </c>
-      <c r="M25" s="5">
+      <c r="L25" s="4">
         <v>24</v>
       </c>
-      <c r="N25" s="5">
+      <c r="M25" s="4">
         <v>43</v>
       </c>
-      <c r="O25" s="5">
+      <c r="N25" s="4">
         <v>60</v>
       </c>
-      <c r="P25" s="2">
+      <c r="O25" s="2">
         <v>63</v>
+      </c>
+      <c r="P25">
+        <v>111</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.35">
@@ -1925,20 +1925,20 @@
       <c r="K26" s="3">
         <v>1</v>
       </c>
-      <c r="L26" s="5">
-        <v>1</v>
-      </c>
-      <c r="M26" s="5">
-        <v>1</v>
-      </c>
-      <c r="N26" s="5">
-        <v>1</v>
-      </c>
-      <c r="O26" s="5">
-        <v>2</v>
-      </c>
-      <c r="P26" s="2">
-        <v>2</v>
+      <c r="L26" s="4">
+        <v>1</v>
+      </c>
+      <c r="M26" s="4">
+        <v>1</v>
+      </c>
+      <c r="N26" s="4">
+        <v>2</v>
+      </c>
+      <c r="O26" s="2">
+        <v>2</v>
+      </c>
+      <c r="P26">
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.35">
@@ -1975,20 +1975,20 @@
       <c r="K27" s="3">
         <v>1</v>
       </c>
-      <c r="L27" s="5">
-        <v>1</v>
-      </c>
-      <c r="M27" s="5">
-        <v>1</v>
-      </c>
-      <c r="N27" s="5">
-        <v>2</v>
-      </c>
-      <c r="O27" s="5">
+      <c r="L27" s="4">
+        <v>1</v>
+      </c>
+      <c r="M27" s="4">
+        <v>2</v>
+      </c>
+      <c r="N27" s="4">
         <v>6</v>
       </c>
-      <c r="P27" s="2">
+      <c r="O27" s="2">
         <v>6</v>
+      </c>
+      <c r="P27">
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.35">
@@ -2025,20 +2025,20 @@
       <c r="K28" s="3">
         <v>3</v>
       </c>
-      <c r="L28" s="5">
-        <v>3</v>
-      </c>
-      <c r="M28" s="5">
-        <v>3</v>
-      </c>
-      <c r="N28" s="5">
+      <c r="L28" s="4">
+        <v>3</v>
+      </c>
+      <c r="M28" s="4">
         <v>8</v>
       </c>
-      <c r="O28" s="5">
+      <c r="N28" s="4">
         <v>8</v>
       </c>
-      <c r="P28" s="2">
+      <c r="O28" s="2">
         <v>8</v>
+      </c>
+      <c r="P28">
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.35">
@@ -2087,8 +2087,8 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
+      <c r="P29">
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.35">
@@ -2137,8 +2137,8 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-      <c r="P30" s="3">
-        <v>0</v>
+      <c r="P30">
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.35">
@@ -2175,20 +2175,20 @@
       <c r="K31" s="3">
         <v>2</v>
       </c>
-      <c r="L31" s="5">
+      <c r="L31" s="4">
         <v>4</v>
       </c>
-      <c r="M31" s="5">
-        <v>4</v>
-      </c>
-      <c r="N31" s="5">
+      <c r="M31" s="4">
         <v>6</v>
       </c>
-      <c r="O31" s="5">
+      <c r="N31" s="4">
         <v>10</v>
       </c>
-      <c r="P31" s="2">
+      <c r="O31" s="2">
         <v>10</v>
+      </c>
+      <c r="P31">
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.35">
@@ -2225,20 +2225,20 @@
       <c r="K32" s="3">
         <v>0</v>
       </c>
-      <c r="L32" s="5">
-        <v>0</v>
-      </c>
-      <c r="M32" s="5">
-        <v>1</v>
-      </c>
-      <c r="N32" s="5">
-        <v>1</v>
-      </c>
-      <c r="O32" s="5">
-        <v>1</v>
-      </c>
-      <c r="P32" s="2">
-        <v>1</v>
+      <c r="L32" s="4">
+        <v>1</v>
+      </c>
+      <c r="M32" s="4">
+        <v>1</v>
+      </c>
+      <c r="N32" s="4">
+        <v>1</v>
+      </c>
+      <c r="O32" s="2">
+        <v>1</v>
+      </c>
+      <c r="P32">
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.35">
@@ -2275,20 +2275,20 @@
       <c r="K33" s="3">
         <v>20</v>
       </c>
-      <c r="L33" s="5">
-        <v>27</v>
-      </c>
-      <c r="M33" s="5">
+      <c r="L33" s="4">
         <v>44</v>
       </c>
-      <c r="N33" s="5">
+      <c r="M33" s="4">
         <v>62</v>
       </c>
-      <c r="O33" s="5">
+      <c r="N33" s="4">
         <v>81</v>
       </c>
-      <c r="P33" s="2">
+      <c r="O33" s="2">
         <v>81</v>
+      </c>
+      <c r="P33">
+        <v>140</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.35">
@@ -2325,20 +2325,20 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="5">
-        <v>0</v>
-      </c>
-      <c r="M34" s="5">
-        <v>0</v>
-      </c>
-      <c r="N34" s="5">
-        <v>1</v>
-      </c>
-      <c r="O34" s="5">
-        <v>1</v>
-      </c>
-      <c r="P34" s="2">
-        <v>1</v>
+      <c r="L34" s="4">
+        <v>0</v>
+      </c>
+      <c r="M34" s="4">
+        <v>1</v>
+      </c>
+      <c r="N34" s="4">
+        <v>1</v>
+      </c>
+      <c r="O34" s="2">
+        <v>1</v>
+      </c>
+      <c r="P34">
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.35">
@@ -2375,20 +2375,20 @@
       <c r="K35" s="3">
         <v>117</v>
       </c>
-      <c r="L35" s="5">
-        <v>114</v>
-      </c>
-      <c r="M35" s="5">
+      <c r="L35" s="4">
         <v>210</v>
       </c>
-      <c r="N35" s="5">
+      <c r="M35" s="4">
         <v>285</v>
       </c>
-      <c r="O35" s="5">
+      <c r="N35" s="4">
         <v>385</v>
       </c>
-      <c r="P35" s="2">
+      <c r="O35" s="2">
         <v>432</v>
+      </c>
+      <c r="P35">
+        <v>782</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.35">
@@ -2425,20 +2425,20 @@
       <c r="K36" s="3">
         <v>0</v>
       </c>
-      <c r="L36" s="5">
-        <v>0</v>
-      </c>
-      <c r="M36" s="5">
-        <v>0</v>
-      </c>
-      <c r="N36" s="5">
-        <v>1</v>
-      </c>
-      <c r="O36" s="5">
-        <v>2</v>
-      </c>
-      <c r="P36" s="2">
-        <v>2</v>
+      <c r="L36" s="4">
+        <v>0</v>
+      </c>
+      <c r="M36" s="4">
+        <v>1</v>
+      </c>
+      <c r="N36" s="4">
+        <v>2</v>
+      </c>
+      <c r="O36" s="2">
+        <v>2</v>
+      </c>
+      <c r="P36">
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.35">
@@ -2487,8 +2487,8 @@
       <c r="O37" s="3">
         <v>0</v>
       </c>
-      <c r="P37" s="3">
-        <v>0</v>
+      <c r="P37">
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.35">
@@ -2525,20 +2525,20 @@
       <c r="K38" s="3">
         <v>3</v>
       </c>
-      <c r="L38" s="5">
-        <v>6</v>
-      </c>
-      <c r="M38" s="5">
+      <c r="L38" s="4">
         <v>8</v>
       </c>
-      <c r="N38" s="5">
+      <c r="M38" s="4">
         <v>10</v>
       </c>
-      <c r="O38" s="5">
+      <c r="N38" s="4">
         <v>15</v>
       </c>
-      <c r="P38" s="2">
+      <c r="O38" s="2">
         <v>15</v>
+      </c>
+      <c r="P38">
+        <v>25</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.35">
@@ -2575,20 +2575,20 @@
       <c r="K39" s="3">
         <v>2</v>
       </c>
-      <c r="L39" s="5">
-        <v>2</v>
-      </c>
-      <c r="M39" s="5">
-        <v>3</v>
-      </c>
-      <c r="N39" s="5">
+      <c r="L39" s="4">
+        <v>3</v>
+      </c>
+      <c r="M39" s="4">
         <v>5</v>
       </c>
-      <c r="O39" s="5">
+      <c r="N39" s="4">
         <v>7</v>
       </c>
-      <c r="P39" s="2">
+      <c r="O39" s="2">
         <v>7</v>
+      </c>
+      <c r="P39">
+        <v>15</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.35">
@@ -2625,20 +2625,20 @@
       <c r="K40" s="3">
         <v>4</v>
       </c>
-      <c r="L40" s="5">
-        <v>5</v>
-      </c>
-      <c r="M40" s="5">
+      <c r="L40" s="4">
         <v>8</v>
       </c>
-      <c r="N40" s="5">
+      <c r="M40" s="4">
         <v>8</v>
       </c>
-      <c r="O40" s="5">
+      <c r="N40" s="4">
         <v>11</v>
       </c>
-      <c r="P40" s="2">
+      <c r="O40" s="2">
         <v>11</v>
+      </c>
+      <c r="P40">
+        <v>13</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.35">
@@ -2675,20 +2675,20 @@
       <c r="K41" s="3">
         <v>3</v>
       </c>
-      <c r="L41" s="5">
-        <v>6</v>
-      </c>
-      <c r="M41" s="5">
+      <c r="L41" s="4">
         <v>7</v>
       </c>
-      <c r="N41" s="5">
+      <c r="M41" s="4">
         <v>11</v>
       </c>
-      <c r="O41" s="5">
+      <c r="N41" s="4">
         <v>16</v>
       </c>
-      <c r="P41" s="2">
+      <c r="O41" s="2">
         <v>16</v>
+      </c>
+      <c r="P41">
+        <v>35</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.35">
@@ -2725,20 +2725,20 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-      <c r="L42" s="5">
-        <v>2</v>
-      </c>
-      <c r="M42" s="5">
-        <v>2</v>
-      </c>
-      <c r="N42" s="5">
-        <v>2</v>
-      </c>
-      <c r="O42" s="5">
-        <v>2</v>
-      </c>
-      <c r="P42" s="2">
-        <v>2</v>
+      <c r="L42" s="4">
+        <v>2</v>
+      </c>
+      <c r="M42" s="4">
+        <v>2</v>
+      </c>
+      <c r="N42" s="4">
+        <v>2</v>
+      </c>
+      <c r="O42" s="2">
+        <v>2</v>
+      </c>
+      <c r="P42">
+        <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.35">
@@ -2787,8 +2787,8 @@
       <c r="O43" s="3">
         <v>0</v>
       </c>
-      <c r="P43" s="3">
-        <v>0</v>
+      <c r="P43">
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.35">
@@ -2825,20 +2825,20 @@
       <c r="K44" s="3">
         <v>3</v>
       </c>
-      <c r="L44" s="5">
+      <c r="L44" s="4">
         <v>5</v>
       </c>
-      <c r="M44" s="5">
-        <v>5</v>
-      </c>
-      <c r="N44" s="5">
+      <c r="M44" s="4">
         <v>7</v>
       </c>
-      <c r="O44" s="5">
+      <c r="N44" s="4">
         <v>9</v>
       </c>
-      <c r="P44" s="2">
+      <c r="O44" s="2">
         <v>9</v>
+      </c>
+      <c r="P44">
+        <v>15</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.35">
@@ -2884,10 +2884,10 @@
       <c r="N45" s="3">
         <v>1</v>
       </c>
-      <c r="O45" s="3">
-        <v>1</v>
-      </c>
-      <c r="P45" s="2">
+      <c r="O45" s="2">
+        <v>1</v>
+      </c>
+      <c r="P45">
         <v>1</v>
       </c>
     </row>
@@ -2925,20 +2925,20 @@
       <c r="K46" s="3">
         <v>2</v>
       </c>
-      <c r="L46" s="5">
-        <v>2</v>
-      </c>
-      <c r="M46" s="5">
-        <v>2</v>
-      </c>
-      <c r="N46" s="5">
-        <v>3</v>
-      </c>
-      <c r="O46" s="5">
-        <v>3</v>
-      </c>
-      <c r="P46" s="2">
-        <v>3</v>
+      <c r="L46" s="4">
+        <v>2</v>
+      </c>
+      <c r="M46" s="4">
+        <v>3</v>
+      </c>
+      <c r="N46" s="4">
+        <v>3</v>
+      </c>
+      <c r="O46" s="2">
+        <v>3</v>
+      </c>
+      <c r="P46">
+        <v>6</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.35">
@@ -2975,20 +2975,20 @@
       <c r="K47" s="3">
         <v>6</v>
       </c>
-      <c r="L47" s="5">
-        <v>8</v>
-      </c>
-      <c r="M47" s="5">
+      <c r="L47" s="4">
         <v>9</v>
       </c>
-      <c r="N47" s="5">
+      <c r="M47" s="4">
         <v>12</v>
       </c>
-      <c r="O47" s="5">
+      <c r="N47" s="4">
         <v>18</v>
       </c>
-      <c r="P47" s="2">
+      <c r="O47" s="2">
         <v>21</v>
+      </c>
+      <c r="P47">
+        <v>29</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.35">
@@ -3034,11 +3034,11 @@
       <c r="N48" s="3">
         <v>1</v>
       </c>
-      <c r="O48" s="3">
-        <v>1</v>
-      </c>
-      <c r="P48" s="2">
-        <v>1</v>
+      <c r="O48" s="2">
+        <v>1</v>
+      </c>
+      <c r="P48">
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.35">
@@ -3075,20 +3075,20 @@
       <c r="K49" s="3">
         <v>2</v>
       </c>
-      <c r="L49" s="5">
-        <v>5</v>
-      </c>
-      <c r="M49" s="5">
+      <c r="L49" s="4">
         <v>7</v>
       </c>
-      <c r="N49" s="5">
+      <c r="M49" s="4">
         <v>8</v>
       </c>
-      <c r="O49" s="5">
+      <c r="N49" s="4">
         <v>9</v>
       </c>
-      <c r="P49" s="2">
+      <c r="O49" s="2">
         <v>9</v>
+      </c>
+      <c r="P49">
+        <v>12</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.35">
@@ -3125,20 +3125,20 @@
       <c r="K50" s="3">
         <v>6</v>
       </c>
-      <c r="L50" s="5">
-        <v>6</v>
-      </c>
-      <c r="M50" s="5">
+      <c r="L50" s="4">
         <v>7</v>
       </c>
-      <c r="N50" s="5">
+      <c r="M50" s="4">
         <v>9</v>
       </c>
-      <c r="O50" s="5">
+      <c r="N50" s="4">
         <v>13</v>
       </c>
-      <c r="P50" s="2">
+      <c r="O50" s="2">
         <v>13</v>
+      </c>
+      <c r="P50">
+        <v>17</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.35">
@@ -3175,20 +3175,20 @@
       <c r="K51" s="3">
         <v>95</v>
       </c>
-      <c r="L51" s="5">
-        <v>95</v>
-      </c>
-      <c r="M51" s="5">
+      <c r="L51" s="4">
         <v>110</v>
       </c>
-      <c r="N51" s="5">
+      <c r="M51" s="4">
         <v>123</v>
       </c>
-      <c r="O51" s="5">
+      <c r="N51" s="4">
         <v>147</v>
       </c>
-      <c r="P51" s="2">
+      <c r="O51" s="2">
         <v>151</v>
+      </c>
+      <c r="P51">
+        <v>191</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.35">
@@ -3275,20 +3275,20 @@
       <c r="K53" s="3">
         <v>4</v>
       </c>
-      <c r="L53" s="5">
+      <c r="L53" s="4">
         <v>5</v>
       </c>
-      <c r="M53" s="5">
-        <v>5</v>
-      </c>
-      <c r="N53" s="5">
+      <c r="M53" s="4">
         <v>7</v>
       </c>
-      <c r="O53" s="5">
+      <c r="N53" s="4">
         <v>8</v>
       </c>
-      <c r="P53" s="2">
+      <c r="O53" s="2">
         <v>10</v>
+      </c>
+      <c r="P53">
+        <v>17</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.35">
@@ -3342,8 +3342,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P54" xr:uid="{6DBA1537-44B7-457D-A372-52F033B35063}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P54">
+  <autoFilter ref="A1:O54" xr:uid="{6DBA1537-44B7-457D-A372-52F033B35063}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O54">
       <sortCondition ref="A1:A54"/>
     </sortState>
   </autoFilter>

--- a/mac_us_states_deaths.xlsx
+++ b/mac_us_states_deaths.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/71ffaa969b2b2dbb/Meridian/h Computer Science/Teacher Projects/COVID/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="285" documentId="8_{01E479FA-0407-4188-80FA-D8939889E2E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{89BB4B4F-0067-4756-A7D3-417E8178015B}"/>
+  <xr:revisionPtr revIDLastSave="289" documentId="8_{01E479FA-0407-4188-80FA-D8939889E2E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{0C1433FD-9DEA-45E7-9A64-893035226C85}"/>
   <bookViews>
-    <workbookView xWindow="8040" yWindow="-18150" windowWidth="13155" windowHeight="13245" xr2:uid="{479F01FD-FBEA-480D-8311-3224064F669A}"/>
+    <workbookView xWindow="9570" yWindow="-16620" windowWidth="13155" windowHeight="13245" xr2:uid="{479F01FD-FBEA-480D-8311-3224064F669A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
   <si>
     <t>New York</t>
   </si>
@@ -243,6 +243,9 @@
   </si>
   <si>
     <t>3/28/20</t>
+  </si>
+  <si>
+    <t>3/29/20</t>
   </si>
 </sst>
 </file>
@@ -295,7 +298,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -307,6 +310,12 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -629,10 +638,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07C58A35-5762-462F-A8C8-AA6852158F40}">
-  <dimension ref="A1:P54"/>
+  <dimension ref="A1:Q54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P29" sqref="P29"/>
+      <selection activeCell="S9" sqref="S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -641,7 +650,7 @@
     <col min="2" max="15" width="7.453125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>44</v>
       </c>
@@ -690,8 +699,11 @@
       <c r="P1" s="3" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q1" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>41</v>
       </c>
@@ -740,8 +752,11 @@
       <c r="P2">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q2" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>62</v>
       </c>
@@ -790,8 +805,11 @@
       <c r="P3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q3" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>22</v>
       </c>
@@ -840,8 +858,11 @@
       <c r="P4">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q4" s="5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>28</v>
       </c>
@@ -890,8 +911,11 @@
       <c r="P5">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q5" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -940,8 +964,11 @@
       <c r="P6">
         <v>121</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q6" s="5">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -990,8 +1017,11 @@
       <c r="P7">
         <v>43</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q7" s="5">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -1040,8 +1070,11 @@
       <c r="P8">
         <v>33</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q8" s="5">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>42</v>
       </c>
@@ -1090,8 +1123,11 @@
       <c r="P9">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q9" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>31</v>
       </c>
@@ -1140,8 +1176,11 @@
       <c r="P10">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q10" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1190,8 +1229,11 @@
       <c r="P11">
         <v>56</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q11" s="5">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
@@ -1240,8 +1282,11 @@
       <c r="P12">
         <v>79</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q12" s="5">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>40</v>
       </c>
@@ -1290,8 +1335,11 @@
       <c r="P13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q13" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>61</v>
       </c>
@@ -1340,8 +1388,11 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q14" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>32</v>
       </c>
@@ -1390,8 +1441,11 @@
       <c r="P15">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q15" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>8</v>
       </c>
@@ -1440,8 +1494,11 @@
       <c r="P16">
         <v>50</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q16" s="5">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>13</v>
       </c>
@@ -1490,8 +1547,11 @@
       <c r="P17">
         <v>31</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q17" s="5">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>38</v>
       </c>
@@ -1540,8 +1600,11 @@
       <c r="P18">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q18" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>30</v>
       </c>
@@ -1590,8 +1653,11 @@
       <c r="P19">
         <v>6</v>
       </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q19" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>26</v>
       </c>
@@ -1640,8 +1706,11 @@
       <c r="P20">
         <v>9</v>
       </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q20" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>2</v>
       </c>
@@ -1690,8 +1759,11 @@
       <c r="P21">
         <v>137</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q21" s="5">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>63</v>
       </c>
@@ -1740,8 +1812,11 @@
       <c r="P22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q22" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>27</v>
       </c>
@@ -1790,8 +1865,11 @@
       <c r="P23">
         <v>10</v>
       </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q23" s="5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>9</v>
       </c>
@@ -1840,8 +1918,11 @@
       <c r="P24">
         <v>44</v>
       </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q24" s="5">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>5</v>
       </c>
@@ -1890,8 +1971,11 @@
       <c r="P25">
         <v>111</v>
       </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q25" s="5">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>35</v>
       </c>
@@ -1940,8 +2024,11 @@
       <c r="P26">
         <v>5</v>
       </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q26" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
@@ -1990,8 +2077,11 @@
       <c r="P27">
         <v>13</v>
       </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q27" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2040,8 +2130,11 @@
       <c r="P28">
         <v>10</v>
       </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q28" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>64</v>
       </c>
@@ -2090,8 +2183,11 @@
       <c r="P29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q29" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>59</v>
       </c>
@@ -2140,8 +2236,11 @@
       <c r="P30">
         <v>2</v>
       </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q30" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>19</v>
       </c>
@@ -2190,8 +2289,11 @@
       <c r="P31">
         <v>14</v>
       </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q31" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>39</v>
       </c>
@@ -2240,8 +2342,11 @@
       <c r="P32">
         <v>2</v>
       </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q32" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>3</v>
       </c>
@@ -2290,8 +2395,11 @@
       <c r="P33">
         <v>140</v>
       </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q33" s="5">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>37</v>
       </c>
@@ -2340,8 +2448,11 @@
       <c r="P34">
         <v>2</v>
       </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q34" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>0</v>
       </c>
@@ -2390,8 +2501,11 @@
       <c r="P35">
         <v>782</v>
       </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q35" s="5">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>34</v>
       </c>
@@ -2440,8 +2554,11 @@
       <c r="P36">
         <v>4</v>
       </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q36" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>65</v>
       </c>
@@ -2490,8 +2607,11 @@
       <c r="P37">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q37" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>15</v>
       </c>
@@ -2540,8 +2660,11 @@
       <c r="P38">
         <v>25</v>
       </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q38" s="5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>24</v>
       </c>
@@ -2590,8 +2713,11 @@
       <c r="P39">
         <v>15</v>
       </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q39" s="5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>17</v>
       </c>
@@ -2640,8 +2766,11 @@
       <c r="P40">
         <v>13</v>
       </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q40" s="5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>14</v>
       </c>
@@ -2690,8 +2819,11 @@
       <c r="P41">
         <v>35</v>
       </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q41" s="5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>33</v>
       </c>
@@ -2740,8 +2872,11 @@
       <c r="P42">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q42" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>60</v>
       </c>
@@ -2790,8 +2925,11 @@
       <c r="P43">
         <v>2</v>
       </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q43" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>20</v>
       </c>
@@ -2840,8 +2978,11 @@
       <c r="P44">
         <v>15</v>
       </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q44" s="5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
         <v>43</v>
       </c>
@@ -2890,8 +3031,11 @@
       <c r="P45">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q45" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>29</v>
       </c>
@@ -2940,8 +3084,11 @@
       <c r="P46">
         <v>6</v>
       </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q46" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>12</v>
       </c>
@@ -2990,8 +3137,11 @@
       <c r="P47">
         <v>29</v>
       </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q47" s="5">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
         <v>36</v>
       </c>
@@ -3040,8 +3190,11 @@
       <c r="P48">
         <v>2</v>
       </c>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q48" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
         <v>21</v>
       </c>
@@ -3090,8 +3243,11 @@
       <c r="P49">
         <v>12</v>
       </c>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q49" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
         <v>16</v>
       </c>
@@ -3140,8 +3296,11 @@
       <c r="P50">
         <v>17</v>
       </c>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q50" s="5">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
         <v>1</v>
       </c>
@@ -3190,8 +3349,11 @@
       <c r="P51">
         <v>191</v>
       </c>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q51" s="5">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
         <v>66</v>
       </c>
@@ -3240,8 +3402,11 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q52" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
         <v>18</v>
       </c>
@@ -3290,8 +3455,11 @@
       <c r="P53">
         <v>17</v>
       </c>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q53" s="5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
         <v>67</v>
       </c>
@@ -3338,6 +3506,9 @@
         <v>0</v>
       </c>
       <c r="P54" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="6">
         <v>0</v>
       </c>
     </row>

--- a/mac_us_states_deaths.xlsx
+++ b/mac_us_states_deaths.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/71ffaa969b2b2dbb/Meridian/h Computer Science/Teacher Projects/COVID/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="289" documentId="8_{01E479FA-0407-4188-80FA-D8939889E2E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{0C1433FD-9DEA-45E7-9A64-893035226C85}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="114_{53F5A8DB-8100-4239-9BB5-93B3786D6557}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D914E43F-35CB-460E-AFAB-E9A8E5586351}"/>
   <bookViews>
-    <workbookView xWindow="9570" yWindow="-16620" windowWidth="13155" windowHeight="13245" xr2:uid="{479F01FD-FBEA-480D-8311-3224064F669A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="27580" windowHeight="17860" xr2:uid="{479F01FD-FBEA-480D-8311-3224064F669A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
   <si>
     <t>New York</t>
   </si>
@@ -246,6 +246,12 @@
   </si>
   <si>
     <t>3/29/20</t>
+  </si>
+  <si>
+    <t>3/30/20</t>
+  </si>
+  <si>
+    <t>3/31/20</t>
   </si>
 </sst>
 </file>
@@ -298,7 +304,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -316,6 +322,9 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -638,10 +647,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07C58A35-5762-462F-A8C8-AA6852158F40}">
-  <dimension ref="A1:Q54"/>
+  <dimension ref="A1:S54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S9" sqref="S9"/>
+      <selection activeCell="V45" sqref="V45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -650,7 +659,7 @@
     <col min="2" max="15" width="7.453125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>44</v>
       </c>
@@ -702,8 +711,14 @@
       <c r="Q1" s="3" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R1" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>41</v>
       </c>
@@ -755,8 +770,14 @@
       <c r="Q2" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R2" s="7">
+        <v>11</v>
+      </c>
+      <c r="S2" s="7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>62</v>
       </c>
@@ -808,8 +829,14 @@
       <c r="Q3" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R3" s="7">
+        <v>3</v>
+      </c>
+      <c r="S3" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>22</v>
       </c>
@@ -861,8 +888,14 @@
       <c r="Q4" s="5">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R4" s="7">
+        <v>20</v>
+      </c>
+      <c r="S4" s="7">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>28</v>
       </c>
@@ -914,8 +947,14 @@
       <c r="Q5" s="5">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R5" s="7">
+        <v>7</v>
+      </c>
+      <c r="S5" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -967,8 +1006,14 @@
       <c r="Q6" s="5">
         <v>130</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R6" s="7">
+        <v>149</v>
+      </c>
+      <c r="S6" s="7">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -1020,8 +1065,14 @@
       <c r="Q7" s="5">
         <v>46</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R7" s="7">
+        <v>51</v>
+      </c>
+      <c r="S7" s="7">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -1073,8 +1124,14 @@
       <c r="Q8" s="5">
         <v>34</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R8" s="7">
+        <v>51</v>
+      </c>
+      <c r="S8" s="7">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>42</v>
       </c>
@@ -1126,8 +1183,14 @@
       <c r="Q9" s="5">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R9" s="7">
+        <v>7</v>
+      </c>
+      <c r="S9" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>31</v>
       </c>
@@ -1179,8 +1242,14 @@
       <c r="Q10" s="5">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R10" s="7">
+        <v>9</v>
+      </c>
+      <c r="S10" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1232,8 +1301,14 @@
       <c r="Q11" s="5">
         <v>59</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R11" s="7">
+        <v>71</v>
+      </c>
+      <c r="S11" s="7">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
@@ -1285,8 +1360,14 @@
       <c r="Q12" s="5">
         <v>83</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R12" s="7">
+        <v>102</v>
+      </c>
+      <c r="S12" s="7">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>40</v>
       </c>
@@ -1338,8 +1419,14 @@
       <c r="Q13" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R13" s="7">
+        <v>1</v>
+      </c>
+      <c r="S13" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>61</v>
       </c>
@@ -1391,8 +1478,14 @@
       <c r="Q14" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>32</v>
       </c>
@@ -1444,8 +1537,14 @@
       <c r="Q15" s="5">
         <v>6</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R15" s="7">
+        <v>7</v>
+      </c>
+      <c r="S15" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>8</v>
       </c>
@@ -1497,8 +1596,14 @@
       <c r="Q16" s="5">
         <v>70</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R16" s="7">
+        <v>73</v>
+      </c>
+      <c r="S16" s="7">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>13</v>
       </c>
@@ -1550,8 +1655,14 @@
       <c r="Q17" s="5">
         <v>32</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R17" s="7">
+        <v>35</v>
+      </c>
+      <c r="S17" s="7">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>38</v>
       </c>
@@ -1603,8 +1714,14 @@
       <c r="Q18" s="5">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R18" s="7">
+        <v>6</v>
+      </c>
+      <c r="S18" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>30</v>
       </c>
@@ -1656,8 +1773,14 @@
       <c r="Q19" s="5">
         <v>7</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R19" s="7">
+        <v>8</v>
+      </c>
+      <c r="S19" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>26</v>
       </c>
@@ -1709,8 +1832,14 @@
       <c r="Q20" s="5">
         <v>9</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R20" s="7">
+        <v>11</v>
+      </c>
+      <c r="S20" s="7">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>2</v>
       </c>
@@ -1762,8 +1891,14 @@
       <c r="Q21" s="5">
         <v>152</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R21" s="7">
+        <v>185</v>
+      </c>
+      <c r="S21" s="7">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>63</v>
       </c>
@@ -1815,8 +1950,14 @@
       <c r="Q22" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R22" s="7">
+        <v>3</v>
+      </c>
+      <c r="S22" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>27</v>
       </c>
@@ -1868,8 +2009,14 @@
       <c r="Q23" s="5">
         <v>11</v>
       </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R23" s="7">
+        <v>15</v>
+      </c>
+      <c r="S23" s="7">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>9</v>
       </c>
@@ -1921,8 +2068,14 @@
       <c r="Q24" s="5">
         <v>48</v>
       </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R24" s="7">
+        <v>56</v>
+      </c>
+      <c r="S24" s="7">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>5</v>
       </c>
@@ -1974,8 +2127,14 @@
       <c r="Q25" s="5">
         <v>132</v>
       </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R25" s="7">
+        <v>184</v>
+      </c>
+      <c r="S25" s="7">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>35</v>
       </c>
@@ -2027,8 +2186,14 @@
       <c r="Q26" s="5">
         <v>9</v>
       </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R26" s="7">
+        <v>10</v>
+      </c>
+      <c r="S26" s="7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
@@ -2080,8 +2245,14 @@
       <c r="Q27" s="5">
         <v>14</v>
       </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R27" s="7">
+        <v>16</v>
+      </c>
+      <c r="S27" s="7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2133,8 +2304,14 @@
       <c r="Q28" s="5">
         <v>12</v>
       </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R28" s="7">
+        <v>13</v>
+      </c>
+      <c r="S28" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>64</v>
       </c>
@@ -2186,8 +2363,14 @@
       <c r="Q29" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R29" s="7">
+        <v>4</v>
+      </c>
+      <c r="S29" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>59</v>
       </c>
@@ -2239,8 +2422,14 @@
       <c r="Q30" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R30" s="7">
+        <v>3</v>
+      </c>
+      <c r="S30" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>19</v>
       </c>
@@ -2292,8 +2481,14 @@
       <c r="Q31" s="5">
         <v>15</v>
       </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R31" s="7">
+        <v>17</v>
+      </c>
+      <c r="S31" s="7">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>39</v>
       </c>
@@ -2345,8 +2540,14 @@
       <c r="Q32" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R32" s="7">
+        <v>3</v>
+      </c>
+      <c r="S32" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>3</v>
       </c>
@@ -2398,8 +2599,14 @@
       <c r="Q33" s="5">
         <v>161</v>
       </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R33" s="7">
+        <v>198</v>
+      </c>
+      <c r="S33" s="7">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>37</v>
       </c>
@@ -2451,8 +2658,14 @@
       <c r="Q34" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R34" s="7">
+        <v>4</v>
+      </c>
+      <c r="S34" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>0</v>
       </c>
@@ -2504,8 +2717,14 @@
       <c r="Q35" s="5">
         <v>965</v>
       </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R35" s="7">
+        <v>1342</v>
+      </c>
+      <c r="S35" s="7">
+        <v>1714</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>34</v>
       </c>
@@ -2557,8 +2776,14 @@
       <c r="Q36" s="5">
         <v>6</v>
       </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R36" s="7">
+        <v>7</v>
+      </c>
+      <c r="S36" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>65</v>
       </c>
@@ -2610,8 +2835,14 @@
       <c r="Q37" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R37" s="7">
+        <v>3</v>
+      </c>
+      <c r="S37" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>15</v>
       </c>
@@ -2663,8 +2894,14 @@
       <c r="Q38" s="5">
         <v>30</v>
       </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R38" s="7">
+        <v>39</v>
+      </c>
+      <c r="S38" s="7">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>24</v>
       </c>
@@ -2716,8 +2953,14 @@
       <c r="Q39" s="5">
         <v>16</v>
       </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R39" s="7">
+        <v>17</v>
+      </c>
+      <c r="S39" s="7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>17</v>
       </c>
@@ -2769,8 +3012,14 @@
       <c r="Q40" s="5">
         <v>13</v>
       </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R40" s="7">
+        <v>16</v>
+      </c>
+      <c r="S40" s="7">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>14</v>
       </c>
@@ -2822,8 +3071,14 @@
       <c r="Q41" s="5">
         <v>40</v>
       </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R41" s="7">
+        <v>51</v>
+      </c>
+      <c r="S41" s="7">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>33</v>
       </c>
@@ -2875,8 +3130,14 @@
       <c r="Q42" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R42" s="7">
+        <v>7</v>
+      </c>
+      <c r="S42" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>60</v>
       </c>
@@ -2928,8 +3189,14 @@
       <c r="Q43" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R43" s="7">
+        <v>4</v>
+      </c>
+      <c r="S43" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>20</v>
       </c>
@@ -2981,8 +3248,14 @@
       <c r="Q44" s="5">
         <v>16</v>
       </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R44" s="7">
+        <v>18</v>
+      </c>
+      <c r="S44" s="7">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
         <v>43</v>
       </c>
@@ -3034,8 +3307,14 @@
       <c r="Q45" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R45" s="7">
+        <v>1</v>
+      </c>
+      <c r="S45" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>29</v>
       </c>
@@ -3087,8 +3366,14 @@
       <c r="Q46" s="5">
         <v>7</v>
       </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R46" s="7">
+        <v>13</v>
+      </c>
+      <c r="S46" s="7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>12</v>
       </c>
@@ -3140,8 +3425,14 @@
       <c r="Q47" s="5">
         <v>35</v>
       </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R47" s="7">
+        <v>47</v>
+      </c>
+      <c r="S47" s="7">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
         <v>36</v>
       </c>
@@ -3193,8 +3484,14 @@
       <c r="Q48" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R48" s="7">
+        <v>4</v>
+      </c>
+      <c r="S48" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
         <v>21</v>
       </c>
@@ -3246,8 +3543,14 @@
       <c r="Q49" s="5">
         <v>12</v>
       </c>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R49" s="7">
+        <v>12</v>
+      </c>
+      <c r="S49" s="7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
         <v>16</v>
       </c>
@@ -3299,8 +3602,14 @@
       <c r="Q50" s="5">
         <v>22</v>
       </c>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R50" s="7">
+        <v>25</v>
+      </c>
+      <c r="S50" s="7">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
         <v>1</v>
       </c>
@@ -3352,8 +3661,14 @@
       <c r="Q51" s="5">
         <v>207</v>
       </c>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R51" s="7">
+        <v>210</v>
+      </c>
+      <c r="S51" s="7">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
         <v>66</v>
       </c>
@@ -3405,8 +3720,14 @@
       <c r="Q52" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R52" s="7">
+        <v>1</v>
+      </c>
+      <c r="S52" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
         <v>18</v>
       </c>
@@ -3458,8 +3779,14 @@
       <c r="Q53" s="5">
         <v>17</v>
       </c>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R53" s="7">
+        <v>23</v>
+      </c>
+      <c r="S53" s="7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
         <v>67</v>
       </c>
@@ -3509,6 +3836,12 @@
         <v>0</v>
       </c>
       <c r="Q54" s="6">
+        <v>0</v>
+      </c>
+      <c r="R54" s="7">
+        <v>0</v>
+      </c>
+      <c r="S54" s="7">
         <v>0</v>
       </c>
     </row>

--- a/mac_us_states_deaths.xlsx
+++ b/mac_us_states_deaths.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/71ffaa969b2b2dbb/Meridian/h Computer Science/Teacher Projects/COVID/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="114_{53F5A8DB-8100-4239-9BB5-93B3786D6557}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D914E43F-35CB-460E-AFAB-E9A8E5586351}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="114_{53F5A8DB-8100-4239-9BB5-93B3786D6557}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{FF34044A-EAA7-4C08-95AF-65FF683A02AC}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="27580" windowHeight="17860" xr2:uid="{479F01FD-FBEA-480D-8311-3224064F669A}"/>
+    <workbookView xWindow="19335" yWindow="-18060" windowWidth="18915" windowHeight="16290" xr2:uid="{479F01FD-FBEA-480D-8311-3224064F669A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -264,7 +264,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -276,6 +276,12 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -304,7 +310,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -326,6 +332,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -647,10 +656,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07C58A35-5762-462F-A8C8-AA6852158F40}">
-  <dimension ref="A1:S54"/>
+  <dimension ref="A1:T54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V45" sqref="V45"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="U11" sqref="U11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -659,7 +668,7 @@
     <col min="2" max="15" width="7.453125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>44</v>
       </c>
@@ -717,8 +726,11 @@
       <c r="S1" s="3" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T1" s="8">
+        <v>43834</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>41</v>
       </c>
@@ -776,8 +788,11 @@
       <c r="S2" s="7">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T2" s="7">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>62</v>
       </c>
@@ -835,8 +850,11 @@
       <c r="S3" s="7">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T3" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>22</v>
       </c>
@@ -894,8 +912,11 @@
       <c r="S4" s="7">
         <v>24</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T4" s="7">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>28</v>
       </c>
@@ -953,8 +974,11 @@
       <c r="S5" s="7">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T5" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1012,8 +1036,11 @@
       <c r="S6" s="7">
         <v>181</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T6" s="7">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -1071,8 +1098,11 @@
       <c r="S7" s="7">
         <v>69</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T7" s="7">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -1130,8 +1160,11 @@
       <c r="S8" s="7">
         <v>69</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T8" s="7">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>42</v>
       </c>
@@ -1189,8 +1222,11 @@
       <c r="S9" s="7">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T9" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>31</v>
       </c>
@@ -1248,8 +1284,11 @@
       <c r="S10" s="7">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T10" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1307,8 +1346,11 @@
       <c r="S11" s="7">
         <v>85</v>
       </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T11" s="7">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
@@ -1366,8 +1408,11 @@
       <c r="S12" s="7">
         <v>125</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T12" s="7">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>40</v>
       </c>
@@ -1425,8 +1470,11 @@
       <c r="S13" s="7">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T13" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>61</v>
       </c>
@@ -1484,8 +1532,11 @@
       <c r="S14" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T14" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>32</v>
       </c>
@@ -1543,8 +1594,11 @@
       <c r="S15" s="7">
         <v>9</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T15" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>8</v>
       </c>
@@ -1602,8 +1656,11 @@
       <c r="S16" s="7">
         <v>99</v>
       </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T16" s="7">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>13</v>
       </c>
@@ -1661,8 +1718,11 @@
       <c r="S17" s="7">
         <v>49</v>
       </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T17" s="7">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>38</v>
       </c>
@@ -1720,8 +1780,11 @@
       <c r="S18" s="7">
         <v>7</v>
       </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T18" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>30</v>
       </c>
@@ -1779,8 +1842,11 @@
       <c r="S19" s="7">
         <v>9</v>
       </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T19" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>26</v>
       </c>
@@ -1838,8 +1904,11 @@
       <c r="S20" s="7">
         <v>17</v>
       </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T20" s="7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>2</v>
       </c>
@@ -1897,8 +1966,11 @@
       <c r="S21" s="7">
         <v>239</v>
       </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T21" s="7">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>63</v>
       </c>
@@ -1956,8 +2028,11 @@
       <c r="S22" s="7">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T22" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>27</v>
       </c>
@@ -2015,8 +2090,11 @@
       <c r="S23" s="7">
         <v>18</v>
       </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T23" s="7">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>9</v>
       </c>
@@ -2074,8 +2152,11 @@
       <c r="S24" s="7">
         <v>89</v>
       </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T24" s="7">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>5</v>
       </c>
@@ -2133,8 +2214,11 @@
       <c r="S25" s="7">
         <v>259</v>
       </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T25" s="7">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>35</v>
       </c>
@@ -2192,8 +2276,11 @@
       <c r="S26" s="7">
         <v>12</v>
       </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T26" s="7">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
@@ -2251,8 +2338,11 @@
       <c r="S27" s="7">
         <v>20</v>
       </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T27" s="7">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2310,8 +2400,11 @@
       <c r="S28" s="7">
         <v>14</v>
       </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T28" s="7">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>64</v>
       </c>
@@ -2369,8 +2462,11 @@
       <c r="S29" s="7">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T29" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>59</v>
       </c>
@@ -2428,8 +2524,11 @@
       <c r="S30" s="7">
         <v>3</v>
       </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T30" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>19</v>
       </c>
@@ -2487,8 +2586,11 @@
       <c r="S31" s="7">
         <v>18</v>
       </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T31" s="7">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>39</v>
       </c>
@@ -2546,8 +2648,11 @@
       <c r="S32" s="7">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T32" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>3</v>
       </c>
@@ -2605,8 +2710,11 @@
       <c r="S33" s="7">
         <v>267</v>
       </c>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T33" s="7">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>37</v>
       </c>
@@ -2664,8 +2772,11 @@
       <c r="S34" s="7">
         <v>5</v>
       </c>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T34" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>0</v>
       </c>
@@ -2723,8 +2834,11 @@
       <c r="S35" s="7">
         <v>1714</v>
       </c>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T35" s="7">
+        <v>2219</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>34</v>
       </c>
@@ -2782,8 +2896,11 @@
       <c r="S36" s="7">
         <v>8</v>
       </c>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T36" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>65</v>
       </c>
@@ -2841,8 +2958,11 @@
       <c r="S37" s="7">
         <v>3</v>
       </c>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T37" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>15</v>
       </c>
@@ -2900,8 +3020,11 @@
       <c r="S38" s="7">
         <v>55</v>
       </c>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T38" s="7">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>24</v>
       </c>
@@ -2959,8 +3082,11 @@
       <c r="S39" s="7">
         <v>23</v>
       </c>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T39" s="7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>17</v>
       </c>
@@ -3018,8 +3144,11 @@
       <c r="S40" s="7">
         <v>18</v>
       </c>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T40" s="7">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>14</v>
       </c>
@@ -3077,8 +3206,11 @@
       <c r="S41" s="7">
         <v>63</v>
       </c>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T41" s="7">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>33</v>
       </c>
@@ -3136,8 +3268,11 @@
       <c r="S42" s="7">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T42" s="7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>60</v>
       </c>
@@ -3195,8 +3330,11 @@
       <c r="S43" s="7">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T43" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>20</v>
       </c>
@@ -3254,8 +3392,11 @@
       <c r="S44" s="7">
         <v>22</v>
       </c>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T44" s="7">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
         <v>43</v>
       </c>
@@ -3313,8 +3454,11 @@
       <c r="S45" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T45" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>29</v>
       </c>
@@ -3372,8 +3516,11 @@
       <c r="S46" s="7">
         <v>23</v>
       </c>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T46" s="7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>12</v>
       </c>
@@ -3431,8 +3578,11 @@
       <c r="S47" s="7">
         <v>56</v>
       </c>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T47" s="7">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
         <v>36</v>
       </c>
@@ -3490,8 +3640,11 @@
       <c r="S48" s="7">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T48" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
         <v>21</v>
       </c>
@@ -3549,8 +3702,11 @@
       <c r="S49" s="7">
         <v>13</v>
       </c>
-    </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T49" s="7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
         <v>16</v>
       </c>
@@ -3608,8 +3764,11 @@
       <c r="S50" s="7">
         <v>27</v>
       </c>
-    </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T50" s="7">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
         <v>1</v>
       </c>
@@ -3667,8 +3826,11 @@
       <c r="S51" s="7">
         <v>225</v>
       </c>
-    </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T51" s="7">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
         <v>66</v>
       </c>
@@ -3726,8 +3888,11 @@
       <c r="S52" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T52" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
         <v>18</v>
       </c>
@@ -3785,8 +3950,11 @@
       <c r="S53" s="7">
         <v>25</v>
       </c>
-    </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T53" s="7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
         <v>67</v>
       </c>
@@ -3844,6 +4012,7 @@
       <c r="S54" s="7">
         <v>0</v>
       </c>
+      <c r="T54" s="7"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:O54" xr:uid="{6DBA1537-44B7-457D-A372-52F033B35063}">
@@ -3851,6 +4020,7 @@
       <sortCondition ref="A1:A54"/>
     </sortState>
   </autoFilter>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/mac_us_states_deaths.xlsx
+++ b/mac_us_states_deaths.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/71ffaa969b2b2dbb/Meridian/h Computer Science/Teacher Projects/COVID/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="114_{53F5A8DB-8100-4239-9BB5-93B3786D6557}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{FF34044A-EAA7-4C08-95AF-65FF683A02AC}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="114_{53F5A8DB-8100-4239-9BB5-93B3786D6557}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D38CC9E3-C67F-4C58-8E23-63BCF90FD6CE}"/>
   <bookViews>
-    <workbookView xWindow="19335" yWindow="-18060" windowWidth="18915" windowHeight="16290" xr2:uid="{479F01FD-FBEA-480D-8311-3224064F669A}"/>
+    <workbookView xWindow="9345" yWindow="-18675" windowWidth="27615" windowHeight="16290" xr2:uid="{479F01FD-FBEA-480D-8311-3224064F669A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -310,7 +310,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -336,6 +336,14 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Comma [0] 2" xfId="6" xr:uid="{B7181ACB-184E-4E39-AAED-9654DFC5082F}"/>
@@ -656,19 +664,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07C58A35-5762-462F-A8C8-AA6852158F40}">
-  <dimension ref="A1:T54"/>
+  <dimension ref="A1:U54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="U11" sqref="U11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="W9" sqref="W9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="16.6328125" bestFit="1" customWidth="1"/>
     <col min="2" max="15" width="7.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.7265625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>44</v>
       </c>
@@ -729,8 +738,11 @@
       <c r="T1" s="8">
         <v>43834</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U1" s="10">
+        <v>43865</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>41</v>
       </c>
@@ -791,8 +803,11 @@
       <c r="T2" s="7">
         <v>28</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U2" s="11">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>62</v>
       </c>
@@ -853,8 +868,11 @@
       <c r="T3" s="7">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U3" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>22</v>
       </c>
@@ -915,8 +933,11 @@
       <c r="T4" s="7">
         <v>29</v>
       </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U4" s="11">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>28</v>
       </c>
@@ -977,8 +998,11 @@
       <c r="T5" s="7">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U5" s="11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1039,8 +1063,11 @@
       <c r="T6" s="7">
         <v>215</v>
       </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U6" s="11">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -1101,8 +1128,11 @@
       <c r="T7" s="7">
         <v>80</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U7" s="11">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -1163,8 +1193,11 @@
       <c r="T8" s="7">
         <v>85</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U8" s="11">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>42</v>
       </c>
@@ -1225,8 +1258,11 @@
       <c r="T9" s="7">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U9" s="11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>31</v>
       </c>
@@ -1287,8 +1323,11 @@
       <c r="T10" s="7">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U10" s="11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1349,8 +1388,11 @@
       <c r="T11" s="7">
         <v>101</v>
       </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U11" s="11">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
@@ -1411,8 +1453,11 @@
       <c r="T12" s="7">
         <v>154</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U12" s="11">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>40</v>
       </c>
@@ -1473,8 +1518,11 @@
       <c r="T13" s="7">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U13" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>61</v>
       </c>
@@ -1535,8 +1583,11 @@
       <c r="T14" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U14" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>32</v>
       </c>
@@ -1597,8 +1648,11 @@
       <c r="T15" s="7">
         <v>9</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U15" s="11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>8</v>
       </c>
@@ -1659,8 +1713,11 @@
       <c r="T16" s="7">
         <v>141</v>
       </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U16" s="11">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>13</v>
       </c>
@@ -1721,8 +1778,11 @@
       <c r="T17" s="7">
         <v>65</v>
       </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U17" s="11">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>38</v>
       </c>
@@ -1783,8 +1843,11 @@
       <c r="T18" s="7">
         <v>9</v>
       </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U18" s="11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>30</v>
       </c>
@@ -1845,8 +1908,11 @@
       <c r="T19" s="7">
         <v>11</v>
       </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U19" s="11">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>26</v>
       </c>
@@ -1907,8 +1973,11 @@
       <c r="T20" s="7">
         <v>20</v>
       </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U20" s="11">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>2</v>
       </c>
@@ -1969,8 +2038,11 @@
       <c r="T21" s="7">
         <v>273</v>
       </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U21" s="11">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>63</v>
       </c>
@@ -2031,8 +2103,11 @@
       <c r="T22" s="7">
         <v>7</v>
       </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U22" s="11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>27</v>
       </c>
@@ -2093,8 +2168,11 @@
       <c r="T23" s="7">
         <v>31</v>
       </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U23" s="11">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>9</v>
       </c>
@@ -2155,8 +2233,11 @@
       <c r="T24" s="7">
         <v>122</v>
       </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U24" s="11">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>5</v>
       </c>
@@ -2217,8 +2298,11 @@
       <c r="T25" s="7">
         <v>337</v>
       </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U25" s="11">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>35</v>
       </c>
@@ -2279,8 +2363,11 @@
       <c r="T26" s="7">
         <v>17</v>
       </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U26" s="11">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
@@ -2341,8 +2428,11 @@
       <c r="T27" s="7">
         <v>22</v>
       </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U27" s="11">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2403,8 +2493,11 @@
       <c r="T28" s="7">
         <v>18</v>
       </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U28" s="11">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>64</v>
       </c>
@@ -2465,8 +2558,11 @@
       <c r="T29" s="7">
         <v>6</v>
       </c>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U29" s="11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>59</v>
       </c>
@@ -2527,8 +2623,11 @@
       <c r="T30" s="7">
         <v>4</v>
       </c>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U30" s="11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>19</v>
       </c>
@@ -2589,8 +2688,11 @@
       <c r="T31" s="7">
         <v>26</v>
       </c>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U31" s="11">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>39</v>
       </c>
@@ -2651,8 +2753,11 @@
       <c r="T32" s="7">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U32" s="11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>3</v>
       </c>
@@ -2713,8 +2818,11 @@
       <c r="T33" s="7">
         <v>355</v>
       </c>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U33" s="11">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>37</v>
       </c>
@@ -2775,8 +2883,11 @@
       <c r="T34" s="7">
         <v>6</v>
       </c>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U34" s="11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>0</v>
       </c>
@@ -2786,7 +2897,7 @@
       <c r="C35" s="3">
         <v>3</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="9">
         <v>10</v>
       </c>
       <c r="E35" s="3">
@@ -2837,8 +2948,11 @@
       <c r="T35" s="7">
         <v>2219</v>
       </c>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U35" s="11">
+        <v>2538</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>34</v>
       </c>
@@ -2899,8 +3013,11 @@
       <c r="T36" s="7">
         <v>15</v>
       </c>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U36" s="11">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>65</v>
       </c>
@@ -2961,8 +3078,11 @@
       <c r="T37" s="7">
         <v>3</v>
       </c>
-    </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U37" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>15</v>
       </c>
@@ -3023,8 +3143,11 @@
       <c r="T38" s="7">
         <v>65</v>
       </c>
-    </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U38" s="11">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>24</v>
       </c>
@@ -3085,8 +3208,11 @@
       <c r="T39" s="7">
         <v>30</v>
       </c>
-    </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U39" s="11">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>17</v>
       </c>
@@ -3147,8 +3273,11 @@
       <c r="T40" s="7">
         <v>19</v>
       </c>
-    </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U40" s="11">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>14</v>
       </c>
@@ -3209,8 +3338,11 @@
       <c r="T41" s="7">
         <v>74</v>
       </c>
-    </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U41" s="11">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>33</v>
       </c>
@@ -3271,8 +3403,11 @@
       <c r="T42" s="7">
         <v>12</v>
       </c>
-    </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U42" s="11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>60</v>
       </c>
@@ -3333,8 +3468,11 @@
       <c r="T43" s="7">
         <v>10</v>
       </c>
-    </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U43" s="11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>20</v>
       </c>
@@ -3395,8 +3533,11 @@
       <c r="T44" s="7">
         <v>26</v>
       </c>
-    </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U44" s="11">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
         <v>43</v>
       </c>
@@ -3457,8 +3598,11 @@
       <c r="T45" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U45" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>29</v>
       </c>
@@ -3519,8 +3663,11 @@
       <c r="T46" s="7">
         <v>25</v>
       </c>
-    </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U46" s="11">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>12</v>
       </c>
@@ -3581,8 +3728,11 @@
       <c r="T47" s="7">
         <v>60</v>
       </c>
-    </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U47" s="11">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
         <v>36</v>
       </c>
@@ -3643,8 +3793,11 @@
       <c r="T48" s="7">
         <v>7</v>
       </c>
-    </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U48" s="11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
         <v>21</v>
       </c>
@@ -3705,8 +3858,11 @@
       <c r="T49" s="7">
         <v>16</v>
       </c>
-    </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U49" s="11">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
         <v>16</v>
       </c>
@@ -3767,8 +3923,11 @@
       <c r="T50" s="7">
         <v>34</v>
       </c>
-    </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U50" s="11">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
         <v>1</v>
       </c>
@@ -3829,8 +3988,11 @@
       <c r="T51" s="7">
         <v>254</v>
       </c>
-    </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U51" s="11">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
         <v>66</v>
       </c>
@@ -3891,8 +4053,11 @@
       <c r="T52" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U52" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
         <v>18</v>
       </c>
@@ -3953,8 +4118,11 @@
       <c r="T53" s="7">
         <v>25</v>
       </c>
-    </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U53" s="11">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
         <v>67</v>
       </c>

--- a/mac_us_states_deaths.xlsx
+++ b/mac_us_states_deaths.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/71ffaa969b2b2dbb/Meridian/h Computer Science/Teacher Projects/COVID/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="24" documentId="114_{53F5A8DB-8100-4239-9BB5-93B3786D6557}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D38CC9E3-C67F-4C58-8E23-63BCF90FD6CE}"/>
+  <xr:revisionPtr revIDLastSave="29" documentId="114_{53F5A8DB-8100-4239-9BB5-93B3786D6557}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{949189F8-1CD4-468F-808A-B092E21C7847}"/>
   <bookViews>
-    <workbookView xWindow="9345" yWindow="-18675" windowWidth="27615" windowHeight="16290" xr2:uid="{479F01FD-FBEA-480D-8311-3224064F669A}"/>
+    <workbookView xWindow="7665" yWindow="-20310" windowWidth="23265" windowHeight="17880" xr2:uid="{479F01FD-FBEA-480D-8311-3224064F669A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -310,7 +310,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -344,6 +344,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Comma [0] 2" xfId="6" xr:uid="{B7181ACB-184E-4E39-AAED-9654DFC5082F}"/>
@@ -664,10 +665,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07C58A35-5762-462F-A8C8-AA6852158F40}">
-  <dimension ref="A1:U54"/>
+  <dimension ref="A1:V54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W9" sqref="W9"/>
+      <selection activeCell="X52" sqref="X52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -677,7 +678,7 @@
     <col min="21" max="21" width="8.7265625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>44</v>
       </c>
@@ -741,8 +742,11 @@
       <c r="U1" s="10">
         <v>43865</v>
       </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V1" s="13">
+        <v>43894</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>41</v>
       </c>
@@ -806,8 +810,11 @@
       <c r="U2" s="11">
         <v>32</v>
       </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V2" s="7">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>62</v>
       </c>
@@ -871,8 +878,11 @@
       <c r="U3" s="11">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V3" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>22</v>
       </c>
@@ -936,8 +946,11 @@
       <c r="U4" s="11">
         <v>32</v>
       </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V4" s="7">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>28</v>
       </c>
@@ -1001,8 +1014,11 @@
       <c r="U5" s="11">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V5" s="7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1066,8 +1082,11 @@
       <c r="U6" s="11">
         <v>246</v>
       </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V6" s="7">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -1131,8 +1150,11 @@
       <c r="U7" s="11">
         <v>97</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V7" s="7">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -1196,8 +1218,11 @@
       <c r="U8" s="11">
         <v>112</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V8" s="7">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>42</v>
       </c>
@@ -1261,8 +1286,11 @@
       <c r="U9" s="11">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V9" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>31</v>
       </c>
@@ -1326,8 +1354,11 @@
       <c r="U10" s="11">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V10" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1391,8 +1422,11 @@
       <c r="U11" s="11">
         <v>144</v>
       </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V11" s="7">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
@@ -1456,8 +1490,11 @@
       <c r="U12" s="11">
         <v>176</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V12" s="7">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>40</v>
       </c>
@@ -1521,8 +1558,11 @@
       <c r="U13" s="11">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V13" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>61</v>
       </c>
@@ -1586,8 +1626,11 @@
       <c r="U14" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V14" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>32</v>
       </c>
@@ -1651,8 +1694,11 @@
       <c r="U15" s="11">
         <v>9</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V15" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>8</v>
       </c>
@@ -1716,8 +1762,11 @@
       <c r="U16" s="11">
         <v>157</v>
       </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V16" s="7">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>13</v>
       </c>
@@ -1781,8 +1830,11 @@
       <c r="U17" s="11">
         <v>78</v>
       </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V17" s="7">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>38</v>
       </c>
@@ -1846,8 +1898,11 @@
       <c r="U18" s="11">
         <v>11</v>
       </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V18" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>30</v>
       </c>
@@ -1911,8 +1966,11 @@
       <c r="U19" s="11">
         <v>13</v>
       </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V19" s="7">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>26</v>
       </c>
@@ -1976,8 +2034,11 @@
       <c r="U20" s="11">
         <v>31</v>
       </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V20" s="7">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>2</v>
       </c>
@@ -2041,8 +2102,11 @@
       <c r="U21" s="11">
         <v>310</v>
       </c>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V21" s="7">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>63</v>
       </c>
@@ -2106,8 +2170,11 @@
       <c r="U22" s="11">
         <v>7</v>
       </c>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V22" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>27</v>
       </c>
@@ -2171,8 +2238,11 @@
       <c r="U23" s="11">
         <v>36</v>
       </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V23" s="7">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>9</v>
       </c>
@@ -2236,8 +2306,11 @@
       <c r="U24" s="11">
         <v>154</v>
       </c>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V24" s="7">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>5</v>
       </c>
@@ -2301,8 +2374,11 @@
       <c r="U25" s="11">
         <v>417</v>
       </c>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V25" s="7">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>35</v>
       </c>
@@ -2366,8 +2442,11 @@
       <c r="U26" s="11">
         <v>18</v>
       </c>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V26" s="7">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
@@ -2431,8 +2510,11 @@
       <c r="U27" s="11">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V27" s="7">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2496,8 +2578,11 @@
       <c r="U28" s="11">
         <v>19</v>
       </c>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V28" s="7">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>64</v>
       </c>
@@ -2561,8 +2646,11 @@
       <c r="U29" s="11">
         <v>6</v>
       </c>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V29" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>59</v>
       </c>
@@ -2626,8 +2714,11 @@
       <c r="U30" s="11">
         <v>5</v>
       </c>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V30" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>19</v>
       </c>
@@ -2691,8 +2782,11 @@
       <c r="U31" s="11">
         <v>38</v>
       </c>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V31" s="7">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>39</v>
       </c>
@@ -2756,8 +2850,11 @@
       <c r="U32" s="11">
         <v>5</v>
       </c>
-    </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V32" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>3</v>
       </c>
@@ -2821,8 +2918,11 @@
       <c r="U33" s="11">
         <v>537</v>
       </c>
-    </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V33" s="7">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>37</v>
       </c>
@@ -2886,8 +2986,11 @@
       <c r="U34" s="11">
         <v>7</v>
       </c>
-    </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V34" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>0</v>
       </c>
@@ -2951,8 +3054,11 @@
       <c r="U35" s="11">
         <v>2538</v>
       </c>
-    </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V35" s="7">
+        <v>3218</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>34</v>
       </c>
@@ -3016,8 +3122,11 @@
       <c r="U36" s="11">
         <v>18</v>
       </c>
-    </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V36" s="7">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>65</v>
       </c>
@@ -3081,8 +3190,11 @@
       <c r="U37" s="11">
         <v>3</v>
       </c>
-    </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V37" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>15</v>
       </c>
@@ -3146,8 +3258,11 @@
       <c r="U38" s="11">
         <v>81</v>
       </c>
-    </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V38" s="7">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>24</v>
       </c>
@@ -3211,8 +3326,11 @@
       <c r="U39" s="11">
         <v>34</v>
       </c>
-    </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V39" s="7">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>17</v>
       </c>
@@ -3276,8 +3394,11 @@
       <c r="U40" s="11">
         <v>21</v>
       </c>
-    </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V40" s="7">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>14</v>
       </c>
@@ -3341,8 +3462,11 @@
       <c r="U41" s="11">
         <v>90</v>
       </c>
-    </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V41" s="7">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>33</v>
       </c>
@@ -3406,8 +3530,11 @@
       <c r="U42" s="11">
         <v>12</v>
       </c>
-    </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V42" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>60</v>
       </c>
@@ -3471,8 +3598,11 @@
       <c r="U43" s="11">
         <v>12</v>
       </c>
-    </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V43" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>20</v>
       </c>
@@ -3536,8 +3666,11 @@
       <c r="U44" s="11">
         <v>31</v>
       </c>
-    </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V44" s="7">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
         <v>43</v>
       </c>
@@ -3601,8 +3734,11 @@
       <c r="U45" s="11">
         <v>2</v>
       </c>
-    </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V45" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>29</v>
       </c>
@@ -3666,8 +3802,11 @@
       <c r="U46" s="11">
         <v>32</v>
       </c>
-    </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V46" s="7">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>12</v>
       </c>
@@ -3731,8 +3870,11 @@
       <c r="U47" s="11">
         <v>77</v>
       </c>
-    </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V47" s="7">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
         <v>36</v>
       </c>
@@ -3796,8 +3938,11 @@
       <c r="U48" s="11">
         <v>7</v>
       </c>
-    </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V48" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
         <v>21</v>
       </c>
@@ -3861,8 +4006,11 @@
       <c r="U49" s="11">
         <v>17</v>
       </c>
-    </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V49" s="7">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
         <v>16</v>
       </c>
@@ -3926,8 +4074,11 @@
       <c r="U50" s="11">
         <v>41</v>
       </c>
-    </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V50" s="7">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
         <v>1</v>
       </c>
@@ -3991,8 +4142,11 @@
       <c r="U51" s="11">
         <v>272</v>
       </c>
-    </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V51" s="7">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
         <v>66</v>
       </c>
@@ -4056,8 +4210,11 @@
       <c r="U52" s="11">
         <v>2</v>
       </c>
-    </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V52" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
         <v>18</v>
       </c>
@@ -4121,8 +4278,11 @@
       <c r="U53" s="11">
         <v>38</v>
       </c>
-    </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V53" s="7">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
         <v>67</v>
       </c>
@@ -4180,7 +4340,15 @@
       <c r="S54" s="7">
         <v>0</v>
       </c>
-      <c r="T54" s="7"/>
+      <c r="T54" s="7">
+        <v>0</v>
+      </c>
+      <c r="U54" s="7">
+        <v>0</v>
+      </c>
+      <c r="V54" s="7">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:O54" xr:uid="{6DBA1537-44B7-457D-A372-52F033B35063}">

--- a/mac_us_states_deaths.xlsx
+++ b/mac_us_states_deaths.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/71ffaa969b2b2dbb/Meridian/h Computer Science/Teacher Projects/COVID/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="29" documentId="114_{53F5A8DB-8100-4239-9BB5-93B3786D6557}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{949189F8-1CD4-468F-808A-B092E21C7847}"/>
+  <xr:revisionPtr revIDLastSave="49" documentId="114_{53F5A8DB-8100-4239-9BB5-93B3786D6557}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{ADE875FB-1D04-41BD-97E3-EB92AFA158AE}"/>
   <bookViews>
-    <workbookView xWindow="7665" yWindow="-20310" windowWidth="23265" windowHeight="17880" xr2:uid="{479F01FD-FBEA-480D-8311-3224064F669A}"/>
+    <workbookView xWindow="2340" yWindow="-21720" windowWidth="38640" windowHeight="21240" xr2:uid="{479F01FD-FBEA-480D-8311-3224064F669A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
   <si>
     <t>New York</t>
   </si>
@@ -252,6 +252,18 @@
   </si>
   <si>
     <t>3/31/20</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4/1/20</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4/2/20</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4/3/20</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4/4/20</t>
   </si>
 </sst>
 </file>
@@ -310,7 +322,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -333,18 +345,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Comma [0] 2" xfId="6" xr:uid="{B7181ACB-184E-4E39-AAED-9654DFC5082F}"/>
@@ -665,20 +669,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07C58A35-5762-462F-A8C8-AA6852158F40}">
-  <dimension ref="A1:V54"/>
+  <dimension ref="A1:W55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X52" sqref="X52"/>
+      <selection activeCell="X1" sqref="X1:AZ1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="16.6328125" bestFit="1" customWidth="1"/>
     <col min="2" max="15" width="7.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8.7265625" style="12"/>
+    <col min="21" max="21" width="8.7265625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>44</v>
       </c>
@@ -736,17 +740,20 @@
       <c r="S1" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="T1" s="8">
-        <v>43834</v>
-      </c>
-      <c r="U1" s="10">
-        <v>43865</v>
-      </c>
-      <c r="V1" s="13">
-        <v>43894</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="T1" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>41</v>
       </c>
@@ -807,14 +814,17 @@
       <c r="T2" s="7">
         <v>28</v>
       </c>
-      <c r="U2" s="11">
+      <c r="U2" s="7">
         <v>32</v>
       </c>
       <c r="V2" s="7">
         <v>38</v>
       </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W2" s="7">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>62</v>
       </c>
@@ -875,14 +885,17 @@
       <c r="T3" s="7">
         <v>3</v>
       </c>
-      <c r="U3" s="11">
+      <c r="U3" s="7">
         <v>3</v>
       </c>
       <c r="V3" s="7">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W3" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>22</v>
       </c>
@@ -943,14 +956,17 @@
       <c r="T4" s="7">
         <v>29</v>
       </c>
-      <c r="U4" s="11">
+      <c r="U4" s="7">
         <v>32</v>
       </c>
       <c r="V4" s="7">
         <v>41</v>
       </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W4" s="7">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>28</v>
       </c>
@@ -1011,14 +1027,17 @@
       <c r="T5" s="7">
         <v>10</v>
       </c>
-      <c r="U5" s="11">
+      <c r="U5" s="7">
         <v>12</v>
       </c>
       <c r="V5" s="7">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W5" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1079,14 +1098,17 @@
       <c r="T6" s="7">
         <v>215</v>
       </c>
-      <c r="U6" s="11">
+      <c r="U6" s="7">
         <v>246</v>
       </c>
       <c r="V6" s="7">
         <v>285</v>
       </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W6" s="7">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -1147,14 +1169,17 @@
       <c r="T7" s="7">
         <v>80</v>
       </c>
-      <c r="U7" s="11">
+      <c r="U7" s="7">
         <v>97</v>
       </c>
       <c r="V7" s="7">
         <v>111</v>
       </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W7" s="7">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -1215,14 +1240,17 @@
       <c r="T8" s="7">
         <v>85</v>
       </c>
-      <c r="U8" s="11">
+      <c r="U8" s="7">
         <v>112</v>
       </c>
       <c r="V8" s="7">
         <v>131</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W8" s="7">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>42</v>
       </c>
@@ -1283,14 +1311,17 @@
       <c r="T9" s="7">
         <v>11</v>
       </c>
-      <c r="U9" s="11">
+      <c r="U9" s="7">
         <v>12</v>
       </c>
       <c r="V9" s="7">
         <v>14</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W9" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>31</v>
       </c>
@@ -1351,14 +1382,17 @@
       <c r="T10" s="7">
         <v>11</v>
       </c>
-      <c r="U10" s="11">
+      <c r="U10" s="7">
         <v>12</v>
       </c>
       <c r="V10" s="7">
         <v>15</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W10" s="7">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1419,14 +1453,17 @@
       <c r="T11" s="7">
         <v>101</v>
       </c>
-      <c r="U11" s="11">
+      <c r="U11" s="7">
         <v>144</v>
       </c>
       <c r="V11" s="7">
         <v>170</v>
       </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W11" s="7">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
@@ -1487,14 +1524,17 @@
       <c r="T12" s="7">
         <v>154</v>
       </c>
-      <c r="U12" s="11">
+      <c r="U12" s="7">
         <v>176</v>
       </c>
       <c r="V12" s="7">
         <v>198</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W12" s="7">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>40</v>
       </c>
@@ -1555,14 +1595,17 @@
       <c r="T13" s="7">
         <v>3</v>
       </c>
-      <c r="U13" s="11">
+      <c r="U13" s="7">
         <v>3</v>
       </c>
       <c r="V13" s="7">
         <v>4</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W13" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>61</v>
       </c>
@@ -1623,14 +1666,17 @@
       <c r="T14" s="7">
         <v>1</v>
       </c>
-      <c r="U14" s="11">
+      <c r="U14" s="7">
         <v>1</v>
       </c>
       <c r="V14" s="7">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W14" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>32</v>
       </c>
@@ -1691,14 +1737,17 @@
       <c r="T15" s="7">
         <v>9</v>
       </c>
-      <c r="U15" s="11">
+      <c r="U15" s="7">
         <v>9</v>
       </c>
       <c r="V15" s="7">
         <v>10</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W15" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>8</v>
       </c>
@@ -1759,14 +1808,17 @@
       <c r="T16" s="7">
         <v>141</v>
       </c>
-      <c r="U16" s="11">
+      <c r="U16" s="7">
         <v>157</v>
       </c>
       <c r="V16" s="7">
         <v>210</v>
       </c>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W16" s="7">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>13</v>
       </c>
@@ -1827,14 +1879,17 @@
       <c r="T17" s="7">
         <v>65</v>
       </c>
-      <c r="U17" s="11">
+      <c r="U17" s="7">
         <v>78</v>
       </c>
       <c r="V17" s="7">
         <v>102</v>
       </c>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W17" s="7">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>38</v>
       </c>
@@ -1895,14 +1950,17 @@
       <c r="T18" s="7">
         <v>9</v>
       </c>
-      <c r="U18" s="11">
+      <c r="U18" s="7">
         <v>11</v>
       </c>
       <c r="V18" s="7">
         <v>11</v>
       </c>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W18" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>30</v>
       </c>
@@ -1963,14 +2021,17 @@
       <c r="T19" s="7">
         <v>11</v>
       </c>
-      <c r="U19" s="11">
+      <c r="U19" s="7">
         <v>13</v>
       </c>
       <c r="V19" s="7">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W19" s="7">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>26</v>
       </c>
@@ -2031,14 +2092,17 @@
       <c r="T20" s="7">
         <v>20</v>
       </c>
-      <c r="U20" s="11">
+      <c r="U20" s="7">
         <v>31</v>
       </c>
       <c r="V20" s="7">
         <v>37</v>
       </c>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W20" s="7">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>2</v>
       </c>
@@ -2099,14 +2163,17 @@
       <c r="T21" s="7">
         <v>273</v>
       </c>
-      <c r="U21" s="11">
+      <c r="U21" s="7">
         <v>310</v>
       </c>
       <c r="V21" s="7">
         <v>370</v>
       </c>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W21" s="7">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>63</v>
       </c>
@@ -2167,14 +2234,17 @@
       <c r="T22" s="7">
         <v>7</v>
       </c>
-      <c r="U22" s="11">
+      <c r="U22" s="7">
         <v>7</v>
       </c>
       <c r="V22" s="7">
         <v>9</v>
       </c>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W22" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>27</v>
       </c>
@@ -2235,14 +2305,17 @@
       <c r="T23" s="7">
         <v>31</v>
       </c>
-      <c r="U23" s="11">
+      <c r="U23" s="7">
         <v>36</v>
       </c>
       <c r="V23" s="7">
         <v>42</v>
       </c>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W23" s="7">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>9</v>
       </c>
@@ -2303,14 +2376,17 @@
       <c r="T24" s="7">
         <v>122</v>
       </c>
-      <c r="U24" s="11">
+      <c r="U24" s="7">
         <v>154</v>
       </c>
       <c r="V24" s="7">
         <v>192</v>
       </c>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W24" s="7">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>5</v>
       </c>
@@ -2371,14 +2447,17 @@
       <c r="T25" s="7">
         <v>337</v>
       </c>
-      <c r="U25" s="11">
+      <c r="U25" s="7">
         <v>417</v>
       </c>
       <c r="V25" s="7">
         <v>479</v>
       </c>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W25" s="7">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>35</v>
       </c>
@@ -2439,14 +2518,17 @@
       <c r="T26" s="7">
         <v>17</v>
       </c>
-      <c r="U26" s="11">
+      <c r="U26" s="7">
         <v>18</v>
       </c>
       <c r="V26" s="7">
         <v>22</v>
       </c>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W26" s="7">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
@@ -2507,14 +2589,17 @@
       <c r="T27" s="7">
         <v>22</v>
       </c>
-      <c r="U27" s="11">
+      <c r="U27" s="7">
         <v>26</v>
       </c>
       <c r="V27" s="7">
         <v>29</v>
       </c>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W27" s="7">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2575,14 +2660,17 @@
       <c r="T28" s="7">
         <v>18</v>
       </c>
-      <c r="U28" s="11">
+      <c r="U28" s="7">
         <v>19</v>
       </c>
       <c r="V28" s="7">
         <v>19</v>
       </c>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W28" s="7">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>64</v>
       </c>
@@ -2643,14 +2731,17 @@
       <c r="T29" s="7">
         <v>6</v>
       </c>
-      <c r="U29" s="11">
+      <c r="U29" s="7">
         <v>6</v>
       </c>
       <c r="V29" s="7">
         <v>6</v>
       </c>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W29" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>59</v>
       </c>
@@ -2711,14 +2802,17 @@
       <c r="T30" s="7">
         <v>4</v>
       </c>
-      <c r="U30" s="11">
+      <c r="U30" s="7">
         <v>5</v>
       </c>
       <c r="V30" s="7">
         <v>6</v>
       </c>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W30" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>19</v>
       </c>
@@ -2779,14 +2873,17 @@
       <c r="T31" s="7">
         <v>26</v>
       </c>
-      <c r="U31" s="11">
+      <c r="U31" s="7">
         <v>38</v>
       </c>
       <c r="V31" s="7">
         <v>43</v>
       </c>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W31" s="7">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>39</v>
       </c>
@@ -2847,14 +2944,17 @@
       <c r="T32" s="7">
         <v>4</v>
       </c>
-      <c r="U32" s="11">
+      <c r="U32" s="7">
         <v>5</v>
       </c>
       <c r="V32" s="7">
         <v>7</v>
       </c>
-    </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W32" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>3</v>
       </c>
@@ -2915,14 +3015,17 @@
       <c r="T33" s="7">
         <v>355</v>
       </c>
-      <c r="U33" s="11">
+      <c r="U33" s="7">
         <v>537</v>
       </c>
       <c r="V33" s="7">
         <v>646</v>
       </c>
-    </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W33" s="7">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>37</v>
       </c>
@@ -2983,14 +3086,17 @@
       <c r="T34" s="7">
         <v>6</v>
       </c>
-      <c r="U34" s="11">
+      <c r="U34" s="7">
         <v>7</v>
       </c>
       <c r="V34" s="7">
         <v>10</v>
       </c>
-    </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W34" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>0</v>
       </c>
@@ -3000,7 +3106,7 @@
       <c r="C35" s="3">
         <v>3</v>
       </c>
-      <c r="D35" s="9">
+      <c r="D35" s="8">
         <v>10</v>
       </c>
       <c r="E35" s="3">
@@ -3051,14 +3157,17 @@
       <c r="T35" s="7">
         <v>2219</v>
       </c>
-      <c r="U35" s="11">
+      <c r="U35" s="7">
         <v>2538</v>
       </c>
       <c r="V35" s="7">
         <v>3218</v>
       </c>
-    </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W35" s="7">
+        <v>3565</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>34</v>
       </c>
@@ -3119,14 +3228,17 @@
       <c r="T36" s="7">
         <v>15</v>
       </c>
-      <c r="U36" s="11">
+      <c r="U36" s="7">
         <v>18</v>
       </c>
       <c r="V36" s="7">
         <v>28</v>
       </c>
-    </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W36" s="7">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>65</v>
       </c>
@@ -3187,14 +3299,17 @@
       <c r="T37" s="7">
         <v>3</v>
       </c>
-      <c r="U37" s="11">
+      <c r="U37" s="7">
         <v>3</v>
       </c>
       <c r="V37" s="7">
         <v>3</v>
       </c>
-    </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W37" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>15</v>
       </c>
@@ -3255,14 +3370,17 @@
       <c r="T38" s="7">
         <v>65</v>
       </c>
-      <c r="U38" s="11">
+      <c r="U38" s="7">
         <v>81</v>
       </c>
       <c r="V38" s="7">
         <v>91</v>
       </c>
-    </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W38" s="7">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>24</v>
       </c>
@@ -3323,14 +3441,17 @@
       <c r="T39" s="7">
         <v>30</v>
       </c>
-      <c r="U39" s="11">
+      <c r="U39" s="7">
         <v>34</v>
       </c>
       <c r="V39" s="7">
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W39" s="7">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>17</v>
       </c>
@@ -3391,14 +3512,17 @@
       <c r="T40" s="7">
         <v>19</v>
       </c>
-      <c r="U40" s="11">
+      <c r="U40" s="7">
         <v>21</v>
       </c>
       <c r="V40" s="7">
         <v>22</v>
       </c>
-    </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W40" s="7">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>14</v>
       </c>
@@ -3459,14 +3583,17 @@
       <c r="T41" s="7">
         <v>74</v>
       </c>
-      <c r="U41" s="11">
+      <c r="U41" s="7">
         <v>90</v>
       </c>
       <c r="V41" s="7">
         <v>102</v>
       </c>
-    </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W41" s="7">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>33</v>
       </c>
@@ -3527,14 +3654,17 @@
       <c r="T42" s="7">
         <v>12</v>
       </c>
-      <c r="U42" s="11">
+      <c r="U42" s="7">
         <v>12</v>
       </c>
       <c r="V42" s="7">
         <v>15</v>
       </c>
-    </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W42" s="7">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>60</v>
       </c>
@@ -3595,14 +3725,17 @@
       <c r="T43" s="7">
         <v>10</v>
       </c>
-      <c r="U43" s="11">
+      <c r="U43" s="7">
         <v>12</v>
       </c>
       <c r="V43" s="7">
         <v>14</v>
       </c>
-    </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W43" s="7">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>20</v>
       </c>
@@ -3663,14 +3796,17 @@
       <c r="T44" s="7">
         <v>26</v>
       </c>
-      <c r="U44" s="11">
+      <c r="U44" s="7">
         <v>31</v>
       </c>
       <c r="V44" s="7">
         <v>34</v>
       </c>
-    </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W44" s="7">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
         <v>43</v>
       </c>
@@ -3731,14 +3867,17 @@
       <c r="T45" s="7">
         <v>2</v>
       </c>
-      <c r="U45" s="11">
+      <c r="U45" s="7">
         <v>2</v>
       </c>
       <c r="V45" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W45" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>29</v>
       </c>
@@ -3799,14 +3938,17 @@
       <c r="T46" s="7">
         <v>25</v>
       </c>
-      <c r="U46" s="11">
+      <c r="U46" s="7">
         <v>32</v>
       </c>
       <c r="V46" s="7">
         <v>37</v>
       </c>
-    </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W46" s="7">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>12</v>
       </c>
@@ -3867,14 +4009,17 @@
       <c r="T47" s="7">
         <v>60</v>
       </c>
-      <c r="U47" s="11">
+      <c r="U47" s="7">
         <v>77</v>
       </c>
       <c r="V47" s="7">
         <v>97</v>
       </c>
-    </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W47" s="7">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
         <v>36</v>
       </c>
@@ -3935,14 +4080,17 @@
       <c r="T48" s="7">
         <v>7</v>
       </c>
-      <c r="U48" s="11">
+      <c r="U48" s="7">
         <v>7</v>
       </c>
       <c r="V48" s="7">
         <v>7</v>
       </c>
-    </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W48" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
         <v>21</v>
       </c>
@@ -4003,14 +4151,17 @@
       <c r="T49" s="7">
         <v>16</v>
       </c>
-      <c r="U49" s="11">
+      <c r="U49" s="7">
         <v>17</v>
       </c>
       <c r="V49" s="7">
         <v>17</v>
       </c>
-    </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W49" s="7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
         <v>16</v>
       </c>
@@ -4071,14 +4222,17 @@
       <c r="T50" s="7">
         <v>34</v>
       </c>
-      <c r="U50" s="11">
+      <c r="U50" s="7">
         <v>41</v>
       </c>
       <c r="V50" s="7">
         <v>46</v>
       </c>
-    </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W50" s="7">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
         <v>1</v>
       </c>
@@ -4139,14 +4293,17 @@
       <c r="T51" s="7">
         <v>254</v>
       </c>
-      <c r="U51" s="11">
+      <c r="U51" s="7">
         <v>272</v>
       </c>
       <c r="V51" s="7">
         <v>291</v>
       </c>
-    </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W51" s="7">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
         <v>66</v>
       </c>
@@ -4207,14 +4364,17 @@
       <c r="T52" s="7">
         <v>2</v>
       </c>
-      <c r="U52" s="11">
+      <c r="U52" s="7">
         <v>2</v>
       </c>
       <c r="V52" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W52" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
         <v>18</v>
       </c>
@@ -4275,14 +4435,17 @@
       <c r="T53" s="7">
         <v>25</v>
       </c>
-      <c r="U53" s="11">
+      <c r="U53" s="7">
         <v>38</v>
       </c>
       <c r="V53" s="7">
         <v>46</v>
       </c>
-    </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W53" s="7">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
         <v>67</v>
       </c>
@@ -4349,6 +4512,14 @@
       <c r="V54" s="7">
         <v>0</v>
       </c>
+      <c r="W54" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="U55" s="7"/>
+      <c r="V55" s="7"/>
+      <c r="W55" s="7"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:O54" xr:uid="{6DBA1537-44B7-457D-A372-52F033B35063}">

--- a/mac_us_states_deaths.xlsx
+++ b/mac_us_states_deaths.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/71ffaa969b2b2dbb/Meridian/h Computer Science/Teacher Projects/COVID/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="49" documentId="114_{53F5A8DB-8100-4239-9BB5-93B3786D6557}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{ADE875FB-1D04-41BD-97E3-EB92AFA158AE}"/>
+  <xr:revisionPtr revIDLastSave="51" documentId="114_{53F5A8DB-8100-4239-9BB5-93B3786D6557}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{CF232B54-D13D-4394-947C-14D979004606}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="-21720" windowWidth="38640" windowHeight="21240" xr2:uid="{479F01FD-FBEA-480D-8311-3224064F669A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="27580" windowHeight="17860" xr2:uid="{479F01FD-FBEA-480D-8311-3224064F669A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
   <si>
     <t>New York</t>
   </si>
@@ -264,6 +264,9 @@
   </si>
   <si>
     <t xml:space="preserve"> 4/4/20</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4/5/20</t>
   </si>
 </sst>
 </file>
@@ -276,7 +279,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -295,16 +298,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF363945"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -312,8 +335,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFDDDDDD"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFDDDDDD"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFDDDDDD"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFDDDDDD"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFDDDDDD"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -321,8 +368,9 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -349,8 +397,15 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="2" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="8">
+    <cellStyle name="Comma" xfId="7" builtinId="3"/>
     <cellStyle name="Comma [0] 2" xfId="6" xr:uid="{B7181ACB-184E-4E39-AAED-9654DFC5082F}"/>
     <cellStyle name="Comma 2" xfId="5" xr:uid="{A24E7D6E-B895-4D3E-874E-E9A17F3A68C3}"/>
     <cellStyle name="Currency [0] 2" xfId="4" xr:uid="{5D19C4ED-9453-4FDE-9A5A-55011B8A9914}"/>
@@ -669,10 +724,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07C58A35-5762-462F-A8C8-AA6852158F40}">
-  <dimension ref="A1:W55"/>
+  <dimension ref="A1:X55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X1" sqref="X1:AZ1048576"/>
+      <selection activeCell="X2" sqref="X2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -682,7 +737,7 @@
     <col min="21" max="21" width="8.7265625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>44</v>
       </c>
@@ -752,8 +807,11 @@
       <c r="W1" s="3" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="X1" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>41</v>
       </c>
@@ -823,8 +881,11 @@
       <c r="W2" s="7">
         <v>44</v>
       </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="X2" s="10">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>62</v>
       </c>
@@ -894,8 +955,11 @@
       <c r="W3" s="7">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="X3" s="10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>22</v>
       </c>
@@ -965,8 +1029,11 @@
       <c r="W4" s="7">
         <v>52</v>
       </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="X4" s="10">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>28</v>
       </c>
@@ -1036,8 +1103,11 @@
       <c r="W5" s="7">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="X5" s="10">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1107,8 +1177,11 @@
       <c r="W6" s="7">
         <v>321</v>
       </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="X6" s="10">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -1178,8 +1251,11 @@
       <c r="W7" s="7">
         <v>126</v>
       </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="X7" s="10">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -1249,8 +1325,11 @@
       <c r="W8" s="7">
         <v>165</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="X8" s="10">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>42</v>
       </c>
@@ -1320,8 +1399,11 @@
       <c r="W9" s="7">
         <v>14</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="X9" s="10">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>31</v>
       </c>
@@ -1391,8 +1473,11 @@
       <c r="W10" s="7">
         <v>21</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="X10" s="10">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1462,8 +1547,11 @@
       <c r="W11" s="7">
         <v>195</v>
       </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="X11" s="10">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
@@ -1533,8 +1621,11 @@
       <c r="W12" s="7">
         <v>208</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="X12" s="10">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
         <v>40</v>
       </c>
@@ -1604,8 +1695,11 @@
       <c r="W13" s="7">
         <v>4</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="X13" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
         <v>61</v>
       </c>
@@ -1675,8 +1769,11 @@
       <c r="W14" s="7">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="X14" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
         <v>32</v>
       </c>
@@ -1746,8 +1843,11 @@
       <c r="W15" s="7">
         <v>10</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="X15" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
         <v>8</v>
       </c>
@@ -1817,8 +1917,11 @@
       <c r="W16" s="7">
         <v>243</v>
       </c>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="X16" s="10">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
         <v>13</v>
       </c>
@@ -1888,8 +1991,11 @@
       <c r="W17" s="7">
         <v>116</v>
       </c>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="X17" s="10">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
         <v>38</v>
       </c>
@@ -1959,8 +2065,11 @@
       <c r="W18" s="7">
         <v>14</v>
       </c>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="X18" s="10">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
         <v>30</v>
       </c>
@@ -2030,8 +2139,11 @@
       <c r="W19" s="7">
         <v>21</v>
       </c>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="X19" s="10">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
         <v>26</v>
       </c>
@@ -2101,8 +2213,11 @@
       <c r="W20" s="7">
         <v>40</v>
       </c>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="X20" s="10">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
         <v>2</v>
       </c>
@@ -2172,8 +2287,11 @@
       <c r="W21" s="7">
         <v>409</v>
       </c>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="X21" s="10">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
         <v>63</v>
       </c>
@@ -2243,8 +2361,11 @@
       <c r="W22" s="7">
         <v>10</v>
       </c>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="X22" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
         <v>27</v>
       </c>
@@ -2314,8 +2435,11 @@
       <c r="W23" s="7">
         <v>53</v>
       </c>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="X23" s="10">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
         <v>9</v>
       </c>
@@ -2385,8 +2509,11 @@
       <c r="W24" s="7">
         <v>216</v>
       </c>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="X24" s="10">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
         <v>5</v>
       </c>
@@ -2456,8 +2583,11 @@
       <c r="W25" s="7">
         <v>540</v>
       </c>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="X25" s="10">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
         <v>35</v>
       </c>
@@ -2527,8 +2657,11 @@
       <c r="W26" s="7">
         <v>24</v>
       </c>
-    </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="X26" s="10">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
@@ -2598,8 +2731,11 @@
       <c r="W27" s="7">
         <v>35</v>
       </c>
-    </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="X27" s="10">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2669,8 +2805,11 @@
       <c r="W28" s="7">
         <v>36</v>
       </c>
-    </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="X28" s="10">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="1" t="s">
         <v>64</v>
       </c>
@@ -2740,8 +2879,11 @@
       <c r="W29" s="7">
         <v>6</v>
       </c>
-    </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="X29" s="10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="1" t="s">
         <v>59</v>
       </c>
@@ -2811,8 +2953,11 @@
       <c r="W30" s="7">
         <v>6</v>
       </c>
-    </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="X30" s="10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="1" t="s">
         <v>19</v>
       </c>
@@ -2882,8 +3027,11 @@
       <c r="W31" s="7">
         <v>46</v>
       </c>
-    </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="X31" s="10">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="1" t="s">
         <v>39</v>
       </c>
@@ -2953,8 +3101,11 @@
       <c r="W32" s="7">
         <v>9</v>
       </c>
-    </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="X32" s="10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="1" t="s">
         <v>3</v>
       </c>
@@ -3024,8 +3175,11 @@
       <c r="W33" s="7">
         <v>846</v>
       </c>
-    </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="X33" s="10">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="1" t="s">
         <v>37</v>
       </c>
@@ -3095,8 +3249,11 @@
       <c r="W34" s="7">
         <v>11</v>
       </c>
-    </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="X34" s="10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="1" t="s">
         <v>0</v>
       </c>
@@ -3166,8 +3323,11 @@
       <c r="W35" s="7">
         <v>3565</v>
       </c>
-    </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="X35" s="10">
+        <v>4159</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="1" t="s">
         <v>34</v>
       </c>
@@ -3237,8 +3397,11 @@
       <c r="W36" s="7">
         <v>33</v>
       </c>
-    </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="X36" s="10">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="1" t="s">
         <v>65</v>
       </c>
@@ -3308,8 +3471,11 @@
       <c r="W37" s="7">
         <v>3</v>
       </c>
-    </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="X37" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="1" t="s">
         <v>15</v>
       </c>
@@ -3379,8 +3545,11 @@
       <c r="W38" s="7">
         <v>102</v>
       </c>
-    </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="X38" s="10">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A39" s="1" t="s">
         <v>24</v>
       </c>
@@ -3450,8 +3619,11 @@
       <c r="W39" s="7">
         <v>42</v>
       </c>
-    </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="X39" s="10">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A40" s="1" t="s">
         <v>17</v>
       </c>
@@ -3521,8 +3693,11 @@
       <c r="W40" s="7">
         <v>26</v>
       </c>
-    </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="X40" s="10">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A41" s="1" t="s">
         <v>14</v>
       </c>
@@ -3592,8 +3767,11 @@
       <c r="W41" s="7">
         <v>136</v>
       </c>
-    </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="X41" s="10">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A42" s="1" t="s">
         <v>33</v>
       </c>
@@ -3663,8 +3841,11 @@
       <c r="W42" s="7">
         <v>18</v>
       </c>
-    </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="X42" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A43" s="1" t="s">
         <v>60</v>
       </c>
@@ -3734,8 +3915,11 @@
       <c r="W43" s="7">
         <v>17</v>
       </c>
-    </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="X43" s="10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="1" t="s">
         <v>20</v>
       </c>
@@ -3805,8 +3989,11 @@
       <c r="W44" s="7">
         <v>40</v>
       </c>
-    </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="X44" s="10">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="1" t="s">
         <v>43</v>
       </c>
@@ -3876,8 +4063,11 @@
       <c r="W45" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="X45" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46" s="1" t="s">
         <v>29</v>
       </c>
@@ -3947,8 +4137,11 @@
       <c r="W46" s="7">
         <v>43</v>
       </c>
-    </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="X46" s="10">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A47" s="1" t="s">
         <v>12</v>
       </c>
@@ -4018,8 +4211,11 @@
       <c r="W47" s="7">
         <v>111</v>
       </c>
-    </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="X47" s="10">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A48" s="1" t="s">
         <v>36</v>
       </c>
@@ -4089,8 +4285,11 @@
       <c r="W48" s="7">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="X48" s="10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A49" s="1" t="s">
         <v>21</v>
       </c>
@@ -4160,8 +4359,11 @@
       <c r="W49" s="7">
         <v>20</v>
       </c>
-    </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="X49" s="10">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="50" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A50" s="1" t="s">
         <v>16</v>
       </c>
@@ -4231,8 +4433,11 @@
       <c r="W50" s="7">
         <v>52</v>
       </c>
-    </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="X50" s="10">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A51" s="1" t="s">
         <v>1</v>
       </c>
@@ -4302,8 +4507,11 @@
       <c r="W51" s="7">
         <v>314</v>
       </c>
-    </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="X51" s="10">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="52" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A52" s="1" t="s">
         <v>66</v>
       </c>
@@ -4373,8 +4581,11 @@
       <c r="W52" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="X52" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A53" s="1" t="s">
         <v>18</v>
       </c>
@@ -4444,8 +4655,11 @@
       <c r="W53" s="7">
         <v>56</v>
       </c>
-    </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="X53" s="10">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="54" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A54" s="1" t="s">
         <v>67</v>
       </c>
@@ -4515,8 +4729,9 @@
       <c r="W54" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="X54" s="11"/>
+    </row>
+    <row r="55" spans="1:24" x14ac:dyDescent="0.35">
       <c r="U55" s="7"/>
       <c r="V55" s="7"/>
       <c r="W55" s="7"/>

--- a/mac_us_states_deaths.xlsx
+++ b/mac_us_states_deaths.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/71ffaa969b2b2dbb/Meridian/h Computer Science/Teacher Projects/COVID/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="51" documentId="114_{53F5A8DB-8100-4239-9BB5-93B3786D6557}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{CF232B54-D13D-4394-947C-14D979004606}"/>
+  <xr:revisionPtr revIDLastSave="56" documentId="114_{53F5A8DB-8100-4239-9BB5-93B3786D6557}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{0A3CEB64-9B06-447F-B105-EC7F2485338C}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="27580" windowHeight="17860" xr2:uid="{479F01FD-FBEA-480D-8311-3224064F669A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
   <si>
     <t>New York</t>
   </si>
@@ -267,6 +267,9 @@
   </si>
   <si>
     <t xml:space="preserve"> 4/5/20</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4/6/20</t>
   </si>
 </sst>
 </file>
@@ -724,10 +727,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07C58A35-5762-462F-A8C8-AA6852158F40}">
-  <dimension ref="A1:X55"/>
+  <dimension ref="A1:Y55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X2" sqref="X2"/>
+      <selection activeCell="Z52" sqref="Z52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -737,7 +740,7 @@
     <col min="21" max="21" width="8.7265625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>44</v>
       </c>
@@ -810,8 +813,11 @@
       <c r="X1" s="3" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="2" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="Y1" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>41</v>
       </c>
@@ -884,8 +890,11 @@
       <c r="X2" s="10">
         <v>45</v>
       </c>
-    </row>
-    <row r="3" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="Y2" s="7">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>62</v>
       </c>
@@ -958,8 +967,11 @@
       <c r="X3" s="10">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="Y3" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>22</v>
       </c>
@@ -1032,8 +1044,11 @@
       <c r="X4" s="10">
         <v>64</v>
       </c>
-    </row>
-    <row r="5" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="Y4" s="7">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>28</v>
       </c>
@@ -1106,8 +1121,11 @@
       <c r="X5" s="10">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="Y5" s="7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1180,8 +1198,11 @@
       <c r="X6" s="10">
         <v>350</v>
       </c>
-    </row>
-    <row r="7" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="Y6" s="7">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -1254,8 +1275,11 @@
       <c r="X7" s="10">
         <v>140</v>
       </c>
-    </row>
-    <row r="8" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="Y7" s="7">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -1328,8 +1352,11 @@
       <c r="X8" s="10">
         <v>189</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="Y8" s="7">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>42</v>
       </c>
@@ -1402,8 +1429,11 @@
       <c r="X9" s="10">
         <v>14</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="Y9" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>31</v>
       </c>
@@ -1476,8 +1506,11 @@
       <c r="X10" s="10">
         <v>22</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="Y10" s="7">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1550,8 +1583,11 @@
       <c r="X11" s="10">
         <v>221</v>
       </c>
-    </row>
-    <row r="12" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="Y11" s="7">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
@@ -1624,8 +1660,11 @@
       <c r="X12" s="10">
         <v>219</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="Y12" s="7">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
         <v>40</v>
       </c>
@@ -1698,8 +1737,11 @@
       <c r="X13" s="10">
         <v>4</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="Y13" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
         <v>61</v>
       </c>
@@ -1772,8 +1814,11 @@
       <c r="X14" s="10">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="Y14" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
         <v>32</v>
       </c>
@@ -1846,8 +1891,11 @@
       <c r="X15" s="10">
         <v>10</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="Y15" s="7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
         <v>8</v>
       </c>
@@ -1920,8 +1968,11 @@
       <c r="X16" s="10">
         <v>274</v>
       </c>
-    </row>
-    <row r="17" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="Y16" s="7">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
         <v>13</v>
       </c>
@@ -1994,8 +2045,11 @@
       <c r="X17" s="10">
         <v>127</v>
       </c>
-    </row>
-    <row r="18" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="Y17" s="7">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
         <v>38</v>
       </c>
@@ -2068,8 +2122,11 @@
       <c r="X18" s="10">
         <v>22</v>
       </c>
-    </row>
-    <row r="19" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="Y18" s="7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
         <v>30</v>
       </c>
@@ -2142,8 +2199,11 @@
       <c r="X19" s="10">
         <v>22</v>
       </c>
-    </row>
-    <row r="20" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="Y19" s="7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
         <v>26</v>
       </c>
@@ -2216,8 +2276,11 @@
       <c r="X20" s="10">
         <v>45</v>
       </c>
-    </row>
-    <row r="21" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="Y20" s="7">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
         <v>2</v>
       </c>
@@ -2290,8 +2353,11 @@
       <c r="X21" s="10">
         <v>477</v>
       </c>
-    </row>
-    <row r="22" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="Y21" s="7">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
         <v>63</v>
       </c>
@@ -2364,8 +2430,11 @@
       <c r="X22" s="10">
         <v>10</v>
       </c>
-    </row>
-    <row r="23" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="Y22" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
         <v>27</v>
       </c>
@@ -2438,8 +2507,11 @@
       <c r="X23" s="10">
         <v>67</v>
       </c>
-    </row>
-    <row r="24" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="Y23" s="7">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
         <v>9</v>
       </c>
@@ -2512,8 +2584,11 @@
       <c r="X24" s="10">
         <v>231</v>
       </c>
-    </row>
-    <row r="25" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="Y24" s="7">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
         <v>5</v>
       </c>
@@ -2586,8 +2661,11 @@
       <c r="X25" s="10">
         <v>617</v>
       </c>
-    </row>
-    <row r="26" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="Y25" s="7">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
         <v>35</v>
       </c>
@@ -2660,8 +2738,11 @@
       <c r="X26" s="10">
         <v>29</v>
       </c>
-    </row>
-    <row r="27" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="Y26" s="7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
@@ -2734,8 +2815,11 @@
       <c r="X27" s="10">
         <v>43</v>
       </c>
-    </row>
-    <row r="28" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="Y27" s="7">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2808,8 +2892,11 @@
       <c r="X28" s="10">
         <v>49</v>
       </c>
-    </row>
-    <row r="29" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="Y28" s="7">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="1" t="s">
         <v>64</v>
       </c>
@@ -2882,8 +2969,11 @@
       <c r="X29" s="10">
         <v>6</v>
       </c>
-    </row>
-    <row r="30" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="Y29" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="1" t="s">
         <v>59</v>
       </c>
@@ -2956,8 +3046,11 @@
       <c r="X30" s="10">
         <v>8</v>
       </c>
-    </row>
-    <row r="31" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="Y30" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="1" t="s">
         <v>19</v>
       </c>
@@ -3030,8 +3123,11 @@
       <c r="X31" s="10">
         <v>46</v>
       </c>
-    </row>
-    <row r="32" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="Y31" s="7">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="1" t="s">
         <v>39</v>
       </c>
@@ -3104,8 +3200,11 @@
       <c r="X32" s="10">
         <v>9</v>
       </c>
-    </row>
-    <row r="33" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="Y32" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="1" t="s">
         <v>3</v>
       </c>
@@ -3178,8 +3277,11 @@
       <c r="X33" s="10">
         <v>917</v>
       </c>
-    </row>
-    <row r="34" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="Y33" s="7">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="1" t="s">
         <v>37</v>
       </c>
@@ -3252,8 +3354,11 @@
       <c r="X34" s="10">
         <v>12</v>
       </c>
-    </row>
-    <row r="35" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="Y34" s="7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="1" t="s">
         <v>0</v>
       </c>
@@ -3326,8 +3431,11 @@
       <c r="X35" s="10">
         <v>4159</v>
       </c>
-    </row>
-    <row r="36" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="Y35" s="7">
+        <v>4758</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="1" t="s">
         <v>34</v>
       </c>
@@ -3400,8 +3508,11 @@
       <c r="X36" s="10">
         <v>39</v>
       </c>
-    </row>
-    <row r="37" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="Y36" s="7">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="1" t="s">
         <v>65</v>
       </c>
@@ -3474,8 +3585,11 @@
       <c r="X37" s="10">
         <v>3</v>
       </c>
-    </row>
-    <row r="38" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="Y37" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="1" t="s">
         <v>15</v>
       </c>
@@ -3548,8 +3662,11 @@
       <c r="X38" s="10">
         <v>119</v>
       </c>
-    </row>
-    <row r="39" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="Y38" s="7">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A39" s="1" t="s">
         <v>24</v>
       </c>
@@ -3622,8 +3739,11 @@
       <c r="X39" s="10">
         <v>46</v>
       </c>
-    </row>
-    <row r="40" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="Y39" s="7">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A40" s="1" t="s">
         <v>17</v>
       </c>
@@ -3696,8 +3816,11 @@
       <c r="X40" s="10">
         <v>27</v>
       </c>
-    </row>
-    <row r="41" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="Y40" s="7">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A41" s="1" t="s">
         <v>14</v>
       </c>
@@ -3770,8 +3893,11 @@
       <c r="X41" s="10">
         <v>150</v>
       </c>
-    </row>
-    <row r="42" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="Y41" s="7">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A42" s="1" t="s">
         <v>33</v>
       </c>
@@ -3844,8 +3970,11 @@
       <c r="X42" s="10">
         <v>20</v>
       </c>
-    </row>
-    <row r="43" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="Y42" s="7">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A43" s="1" t="s">
         <v>60</v>
       </c>
@@ -3918,8 +4047,11 @@
       <c r="X43" s="10">
         <v>25</v>
       </c>
-    </row>
-    <row r="44" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="Y43" s="7">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="44" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="1" t="s">
         <v>20</v>
       </c>
@@ -3992,8 +4124,11 @@
       <c r="X44" s="10">
         <v>44</v>
       </c>
-    </row>
-    <row r="45" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="Y44" s="7">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="45" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="1" t="s">
         <v>43</v>
       </c>
@@ -4066,8 +4201,11 @@
       <c r="X45" s="10">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="Y45" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46" s="1" t="s">
         <v>29</v>
       </c>
@@ -4140,8 +4278,11 @@
       <c r="X46" s="10">
         <v>44</v>
       </c>
-    </row>
-    <row r="47" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="Y46" s="7">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="47" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A47" s="1" t="s">
         <v>12</v>
       </c>
@@ -4214,8 +4355,11 @@
       <c r="X47" s="10">
         <v>133</v>
       </c>
-    </row>
-    <row r="48" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="Y47" s="7">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="48" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A48" s="1" t="s">
         <v>36</v>
       </c>
@@ -4288,8 +4432,11 @@
       <c r="X48" s="10">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="Y48" s="7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A49" s="1" t="s">
         <v>21</v>
       </c>
@@ -4362,8 +4509,11 @@
       <c r="X49" s="10">
         <v>22</v>
       </c>
-    </row>
-    <row r="50" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="Y49" s="7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="50" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A50" s="1" t="s">
         <v>16</v>
       </c>
@@ -4436,8 +4586,11 @@
       <c r="X50" s="10">
         <v>51</v>
       </c>
-    </row>
-    <row r="51" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="Y50" s="7">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="51" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A51" s="1" t="s">
         <v>1</v>
       </c>
@@ -4510,8 +4663,11 @@
       <c r="X51" s="10">
         <v>338</v>
       </c>
-    </row>
-    <row r="52" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="Y51" s="7">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="52" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A52" s="1" t="s">
         <v>66</v>
       </c>
@@ -4584,8 +4740,11 @@
       <c r="X52" s="10">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="Y52" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A53" s="1" t="s">
         <v>18</v>
       </c>
@@ -4658,8 +4817,11 @@
       <c r="X53" s="10">
         <v>68</v>
       </c>
-    </row>
-    <row r="54" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="Y53" s="7">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="54" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A54" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,9 +4891,14 @@
       <c r="W54" s="7">
         <v>0</v>
       </c>
-      <c r="X54" s="11"/>
-    </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="X54" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y54" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:25" x14ac:dyDescent="0.35">
       <c r="U55" s="7"/>
       <c r="V55" s="7"/>
       <c r="W55" s="7"/>

--- a/mac_us_states_deaths.xlsx
+++ b/mac_us_states_deaths.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/71ffaa969b2b2dbb/Meridian/h Computer Science/Teacher Projects/COVID/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="56" documentId="114_{53F5A8DB-8100-4239-9BB5-93B3786D6557}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{0A3CEB64-9B06-447F-B105-EC7F2485338C}"/>
+  <xr:revisionPtr revIDLastSave="58" documentId="114_{53F5A8DB-8100-4239-9BB5-93B3786D6557}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F262AFB9-6258-4C13-A887-8D89D1A91818}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="27580" windowHeight="17860" xr2:uid="{479F01FD-FBEA-480D-8311-3224064F669A}"/>
+    <workbookView xWindow="1590" yWindow="1150" windowWidth="25770" windowHeight="17090" xr2:uid="{479F01FD-FBEA-480D-8311-3224064F669A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
   <si>
     <t>New York</t>
   </si>
@@ -270,6 +270,9 @@
   </si>
   <si>
     <t xml:space="preserve"> 4/6/20</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4/7/20</t>
   </si>
 </sst>
 </file>
@@ -282,7 +285,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -311,6 +314,13 @@
     <font>
       <b/>
       <sz val="10"/>
+      <color rgb="FF363945"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
       <color rgb="FF363945"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -373,7 +383,7 @@
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -404,6 +414,15 @@
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="4" fillId="2" borderId="2" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -727,10 +746,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07C58A35-5762-462F-A8C8-AA6852158F40}">
-  <dimension ref="A1:Y55"/>
+  <dimension ref="A1:Z55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Z52" sqref="Z52"/>
+      <selection activeCell="Z2" sqref="Z2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -740,7 +759,7 @@
     <col min="21" max="21" width="8.7265625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>44</v>
       </c>
@@ -816,8 +835,11 @@
       <c r="Y1" s="3" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="2" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="Z1" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>41</v>
       </c>
@@ -893,8 +915,11 @@
       <c r="Y2" s="7">
         <v>52</v>
       </c>
-    </row>
-    <row r="3" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="Z2" s="12">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>62</v>
       </c>
@@ -970,8 +995,11 @@
       <c r="Y3" s="7">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="Z3" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>22</v>
       </c>
@@ -1047,8 +1075,11 @@
       <c r="Y4" s="7">
         <v>65</v>
       </c>
-    </row>
-    <row r="5" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="Z4" s="12">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>28</v>
       </c>
@@ -1124,8 +1155,11 @@
       <c r="Y5" s="7">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="Z5" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1201,8 +1235,11 @@
       <c r="Y6" s="7">
         <v>387</v>
       </c>
-    </row>
-    <row r="7" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="Z6" s="12">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -1278,8 +1315,11 @@
       <c r="Y7" s="7">
         <v>150</v>
       </c>
-    </row>
-    <row r="8" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="Z7" s="12">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -1355,8 +1395,11 @@
       <c r="Y8" s="7">
         <v>206</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="Z8" s="12">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>42</v>
       </c>
@@ -1432,8 +1475,11 @@
       <c r="Y9" s="7">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="Z9" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>31</v>
       </c>
@@ -1509,8 +1555,11 @@
       <c r="Y10" s="7">
         <v>24</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="Z10" s="12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1586,8 +1635,11 @@
       <c r="Y11" s="7">
         <v>254</v>
       </c>
-    </row>
-    <row r="12" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="Z11" s="12">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
@@ -1663,8 +1715,11 @@
       <c r="Y12" s="7">
         <v>294</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="Z12" s="12">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
         <v>40</v>
       </c>
@@ -1740,8 +1795,11 @@
       <c r="Y13" s="7">
         <v>4</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="Z13" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
         <v>61</v>
       </c>
@@ -1817,8 +1875,11 @@
       <c r="Y14" s="7">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="Z14" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
         <v>32</v>
       </c>
@@ -1894,8 +1955,11 @@
       <c r="Y15" s="7">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="Z15" s="12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
         <v>8</v>
       </c>
@@ -1971,8 +2035,11 @@
       <c r="Y16" s="7">
         <v>307</v>
       </c>
-    </row>
-    <row r="17" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="Z16" s="12">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
         <v>13</v>
       </c>
@@ -2048,8 +2115,11 @@
       <c r="Y17" s="7">
         <v>139</v>
       </c>
-    </row>
-    <row r="18" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="Z17" s="12">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
         <v>38</v>
       </c>
@@ -2125,8 +2195,11 @@
       <c r="Y18" s="7">
         <v>25</v>
       </c>
-    </row>
-    <row r="19" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="Z18" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
         <v>30</v>
       </c>
@@ -2202,8 +2275,11 @@
       <c r="Y19" s="7">
         <v>25</v>
       </c>
-    </row>
-    <row r="20" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="Z19" s="12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
         <v>26</v>
       </c>
@@ -2279,8 +2355,11 @@
       <c r="Y20" s="7">
         <v>59</v>
       </c>
-    </row>
-    <row r="21" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="Z20" s="12">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
         <v>2</v>
       </c>
@@ -2356,8 +2435,11 @@
       <c r="Y21" s="7">
         <v>512</v>
       </c>
-    </row>
-    <row r="22" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="Z21" s="12">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
         <v>63</v>
       </c>
@@ -2433,8 +2515,11 @@
       <c r="Y22" s="7">
         <v>10</v>
       </c>
-    </row>
-    <row r="23" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="Z22" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
         <v>27</v>
       </c>
@@ -2510,8 +2595,11 @@
       <c r="Y23" s="7">
         <v>91</v>
       </c>
-    </row>
-    <row r="24" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="Z23" s="12">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
         <v>9</v>
       </c>
@@ -2587,8 +2675,11 @@
       <c r="Y24" s="7">
         <v>260</v>
       </c>
-    </row>
-    <row r="25" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="Z24" s="12">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
         <v>5</v>
       </c>
@@ -2664,8 +2755,11 @@
       <c r="Y25" s="7">
         <v>727</v>
       </c>
-    </row>
-    <row r="26" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="Z25" s="12">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
         <v>35</v>
       </c>
@@ -2741,8 +2835,11 @@
       <c r="Y26" s="7">
         <v>30</v>
       </c>
-    </row>
-    <row r="27" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="Z26" s="12">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
@@ -2818,8 +2915,11 @@
       <c r="Y27" s="7">
         <v>51</v>
       </c>
-    </row>
-    <row r="28" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="Z27" s="12">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2895,8 +2995,11 @@
       <c r="Y28" s="7">
         <v>52</v>
       </c>
-    </row>
-    <row r="29" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="Z28" s="12">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="1" t="s">
         <v>64</v>
       </c>
@@ -2972,8 +3075,11 @@
       <c r="Y29" s="7">
         <v>6</v>
       </c>
-    </row>
-    <row r="30" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="Z29" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="1" t="s">
         <v>59</v>
       </c>
@@ -3049,8 +3155,11 @@
       <c r="Y30" s="7">
         <v>8</v>
       </c>
-    </row>
-    <row r="31" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="Z30" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="1" t="s">
         <v>19</v>
       </c>
@@ -3126,8 +3235,11 @@
       <c r="Y31" s="7">
         <v>46</v>
       </c>
-    </row>
-    <row r="32" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="Z31" s="12">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="1" t="s">
         <v>39</v>
       </c>
@@ -3203,8 +3315,11 @@
       <c r="Y32" s="7">
         <v>9</v>
       </c>
-    </row>
-    <row r="33" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="Z32" s="12">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="1" t="s">
         <v>3</v>
       </c>
@@ -3280,8 +3395,11 @@
       <c r="Y33" s="7">
         <v>1003</v>
       </c>
-    </row>
-    <row r="34" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="Z33" s="13">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="1" t="s">
         <v>37</v>
       </c>
@@ -3357,8 +3475,11 @@
       <c r="Y34" s="7">
         <v>12</v>
       </c>
-    </row>
-    <row r="35" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="Z34" s="12">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="1" t="s">
         <v>0</v>
       </c>
@@ -3434,8 +3555,11 @@
       <c r="Y35" s="7">
         <v>4758</v>
       </c>
-    </row>
-    <row r="36" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="Z35" s="13">
+        <v>5489</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="1" t="s">
         <v>34</v>
       </c>
@@ -3511,8 +3635,11 @@
       <c r="Y36" s="7">
         <v>48</v>
       </c>
-    </row>
-    <row r="37" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="Z36" s="12">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="1" t="s">
         <v>65</v>
       </c>
@@ -3588,8 +3715,11 @@
       <c r="Y37" s="7">
         <v>3</v>
       </c>
-    </row>
-    <row r="38" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="Z37" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="1" t="s">
         <v>15</v>
       </c>
@@ -3665,8 +3795,11 @@
       <c r="Y38" s="7">
         <v>142</v>
       </c>
-    </row>
-    <row r="39" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="Z38" s="12">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A39" s="1" t="s">
         <v>24</v>
       </c>
@@ -3742,8 +3875,11 @@
       <c r="Y39" s="7">
         <v>51</v>
       </c>
-    </row>
-    <row r="40" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="Z39" s="12">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A40" s="1" t="s">
         <v>17</v>
       </c>
@@ -3819,8 +3955,11 @@
       <c r="Y40" s="7">
         <v>29</v>
       </c>
-    </row>
-    <row r="41" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="Z40" s="12">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A41" s="1" t="s">
         <v>14</v>
       </c>
@@ -3896,8 +4035,11 @@
       <c r="Y41" s="7">
         <v>179</v>
       </c>
-    </row>
-    <row r="42" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="Z41" s="12">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A42" s="1" t="s">
         <v>33</v>
       </c>
@@ -3973,8 +4115,11 @@
       <c r="Y42" s="7">
         <v>21</v>
       </c>
-    </row>
-    <row r="43" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="Z42" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A43" s="1" t="s">
         <v>60</v>
       </c>
@@ -4050,8 +4195,11 @@
       <c r="Y43" s="7">
         <v>27</v>
       </c>
-    </row>
-    <row r="44" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="Z43" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="1" t="s">
         <v>20</v>
       </c>
@@ -4127,8 +4275,11 @@
       <c r="Y44" s="7">
         <v>48</v>
       </c>
-    </row>
-    <row r="45" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="Z44" s="12">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="1" t="s">
         <v>43</v>
       </c>
@@ -4204,8 +4355,11 @@
       <c r="Y45" s="7">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="Z45" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46" s="1" t="s">
         <v>29</v>
       </c>
@@ -4281,8 +4435,11 @@
       <c r="Y46" s="7">
         <v>65</v>
       </c>
-    </row>
-    <row r="47" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="Z46" s="12">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A47" s="1" t="s">
         <v>12</v>
       </c>
@@ -4358,8 +4515,11 @@
       <c r="Y47" s="7">
         <v>151</v>
       </c>
-    </row>
-    <row r="48" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="Z47" s="12">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="48" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A48" s="1" t="s">
         <v>36</v>
       </c>
@@ -4435,8 +4595,11 @@
       <c r="Y48" s="7">
         <v>13</v>
       </c>
-    </row>
-    <row r="49" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="Z48" s="12">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A49" s="1" t="s">
         <v>21</v>
       </c>
@@ -4512,8 +4675,11 @@
       <c r="Y49" s="7">
         <v>23</v>
       </c>
-    </row>
-    <row r="50" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="Z49" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="50" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A50" s="1" t="s">
         <v>16</v>
       </c>
@@ -4589,8 +4755,11 @@
       <c r="Y50" s="7">
         <v>54</v>
       </c>
-    </row>
-    <row r="51" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="Z50" s="12">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="51" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A51" s="1" t="s">
         <v>1</v>
       </c>
@@ -4666,8 +4835,11 @@
       <c r="Y51" s="7">
         <v>381</v>
       </c>
-    </row>
-    <row r="52" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="Z51" s="12">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="52" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A52" s="1" t="s">
         <v>66</v>
       </c>
@@ -4743,8 +4915,11 @@
       <c r="Y52" s="7">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="Z52" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A53" s="1" t="s">
         <v>18</v>
       </c>
@@ -4820,8 +4995,11 @@
       <c r="Y53" s="7">
         <v>77</v>
       </c>
-    </row>
-    <row r="54" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="Z53" s="12">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="54" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A54" s="1" t="s">
         <v>67</v>
       </c>
@@ -4897,8 +5075,11 @@
       <c r="Y54" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Z54" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:26" x14ac:dyDescent="0.35">
       <c r="U55" s="7"/>
       <c r="V55" s="7"/>
       <c r="W55" s="7"/>
